--- a/data/DOR_Income_EQV_Per_Capita.xlsx
+++ b/data/DOR_Income_EQV_Per_Capita.xlsx
@@ -59,7 +59,7 @@
     <t>PLYMOUTH</t>
   </si>
   <si>
-    <t>2025</t>
+    <t>2023</t>
   </si>
   <si>
     <t>002</t>
@@ -3075,19 +3075,19 @@
         <v>14</v>
       </c>
       <c r="F2" s="7">
-        <v>16965</v>
+        <v>17062</v>
       </c>
       <c r="G2" s="7">
-        <v>725757000</v>
+        <v>645765000</v>
       </c>
       <c r="H2" s="7">
-        <v>42780</v>
+        <v>37848</v>
       </c>
       <c r="I2" s="7">
-        <v>2693823800</v>
+        <v>2379458500</v>
       </c>
       <c r="J2" s="7">
-        <v>158787</v>
+        <v>139460</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -3107,19 +3107,19 @@
         <v>14</v>
       </c>
       <c r="F3" s="7">
-        <v>23829</v>
+        <v>24021</v>
       </c>
       <c r="G3" s="7">
-        <v>2210950000</v>
+        <v>1733168000</v>
       </c>
       <c r="H3" s="7">
-        <v>92784</v>
+        <v>72152</v>
       </c>
       <c r="I3" s="7">
-        <v>5255138400</v>
+        <v>4940912200</v>
       </c>
       <c r="J3" s="7">
-        <v>220535</v>
+        <v>205691</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75">
@@ -3139,19 +3139,19 @@
         <v>14</v>
       </c>
       <c r="F4" s="7">
-        <v>10585</v>
+        <v>10559</v>
       </c>
       <c r="G4" s="7">
-        <v>427553000</v>
+        <v>376411000</v>
       </c>
       <c r="H4" s="7">
-        <v>40392</v>
+        <v>35648</v>
       </c>
       <c r="I4" s="7">
-        <v>1630578800</v>
+        <v>1346443900</v>
       </c>
       <c r="J4" s="7">
-        <v>154046</v>
+        <v>127516</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -3171,19 +3171,19 @@
         <v>14</v>
       </c>
       <c r="F5" s="7">
-        <v>8047</v>
+        <v>8166</v>
       </c>
       <c r="G5" s="7">
-        <v>214031000</v>
+        <v>191139000</v>
       </c>
       <c r="H5" s="7">
-        <v>26598</v>
+        <v>23407</v>
       </c>
       <c r="I5" s="7">
-        <v>593584400</v>
+        <v>549332800</v>
       </c>
       <c r="J5" s="7">
-        <v>73765</v>
+        <v>67271</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
@@ -3203,19 +3203,19 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>28393</v>
+        <v>28692</v>
       </c>
       <c r="G6" s="7">
-        <v>1013311000</v>
+        <v>893064000</v>
       </c>
       <c r="H6" s="7">
-        <v>35689</v>
+        <v>31126</v>
       </c>
       <c r="I6" s="7">
-        <v>3580768800</v>
+        <v>3286756800</v>
       </c>
       <c r="J6" s="7">
-        <v>126114</v>
+        <v>114553</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
@@ -3235,19 +3235,19 @@
         <v>14</v>
       </c>
       <c r="F7" s="7">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7">
-        <v>40805000</v>
+        <v>16412000</v>
       </c>
       <c r="H7" s="7">
-        <v>84482</v>
+        <v>33770</v>
       </c>
       <c r="I7" s="7">
-        <v>308074200</v>
+        <v>279886100</v>
       </c>
       <c r="J7" s="7">
-        <v>637835</v>
+        <v>575897</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -3267,19 +3267,19 @@
         <v>14</v>
       </c>
       <c r="F8" s="7">
-        <v>17179</v>
+        <v>17366</v>
       </c>
       <c r="G8" s="7">
-        <v>825009000</v>
+        <v>714427000</v>
       </c>
       <c r="H8" s="7">
-        <v>48024</v>
+        <v>41139</v>
       </c>
       <c r="I8" s="7">
-        <v>2989453900</v>
+        <v>2652855600</v>
       </c>
       <c r="J8" s="7">
-        <v>174018</v>
+        <v>152761</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
@@ -3299,19 +3299,19 @@
         <v>14</v>
       </c>
       <c r="F9" s="7">
-        <v>40059</v>
+        <v>39263</v>
       </c>
       <c r="G9" s="7">
-        <v>952563000</v>
+        <v>763306000</v>
       </c>
       <c r="H9" s="7">
-        <v>23779</v>
+        <v>19441</v>
       </c>
       <c r="I9" s="7">
-        <v>2913802400</v>
+        <v>2727618700</v>
       </c>
       <c r="J9" s="7">
-        <v>72738</v>
+        <v>69470</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
@@ -3331,19 +3331,19 @@
         <v>14</v>
       </c>
       <c r="F10" s="7">
-        <v>36363</v>
+        <v>36569</v>
       </c>
       <c r="G10" s="7">
-        <v>4352871000</v>
+        <v>3191831000</v>
       </c>
       <c r="H10" s="7">
-        <v>119706</v>
+        <v>87282</v>
       </c>
       <c r="I10" s="7">
-        <v>10204123200</v>
+        <v>9328654100</v>
       </c>
       <c r="J10" s="7">
-        <v>280618</v>
+        <v>255097</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
@@ -3363,19 +3363,19 @@
         <v>14</v>
       </c>
       <c r="F11" s="7">
-        <v>45522</v>
+        <v>46308</v>
       </c>
       <c r="G11" s="7">
-        <v>4037248000</v>
+        <v>3052960000</v>
       </c>
       <c r="H11" s="7">
-        <v>88688</v>
+        <v>65927</v>
       </c>
       <c r="I11" s="7">
-        <v>13535163100</v>
+        <v>12795048700</v>
       </c>
       <c r="J11" s="7">
-        <v>297332</v>
+        <v>276303</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75">
@@ -3395,19 +3395,19 @@
         <v>14</v>
       </c>
       <c r="F12" s="7">
-        <v>6372</v>
+        <v>6315</v>
       </c>
       <c r="G12" s="7">
-        <v>252007000</v>
+        <v>228935000</v>
       </c>
       <c r="H12" s="7">
-        <v>39549</v>
+        <v>36253</v>
       </c>
       <c r="I12" s="7">
-        <v>852436100</v>
+        <v>795346900</v>
       </c>
       <c r="J12" s="7">
-        <v>133778</v>
+        <v>125946</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75">
@@ -3427,19 +3427,19 @@
         <v>14</v>
       </c>
       <c r="F13" s="7">
-        <v>3163</v>
+        <v>3193</v>
       </c>
       <c r="G13" s="7">
-        <v>121033000</v>
+        <v>123259000</v>
       </c>
       <c r="H13" s="7">
-        <v>38265</v>
+        <v>38603</v>
       </c>
       <c r="I13" s="7">
-        <v>417224700</v>
+        <v>366133300</v>
       </c>
       <c r="J13" s="7">
-        <v>131908</v>
+        <v>114667</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75">
@@ -3459,19 +3459,19 @@
         <v>14</v>
       </c>
       <c r="F14" s="7">
-        <v>1688</v>
+        <v>1695</v>
       </c>
       <c r="G14" s="7">
-        <v>82357000</v>
+        <v>47892000</v>
       </c>
       <c r="H14" s="7">
-        <v>48790</v>
+        <v>28255</v>
       </c>
       <c r="I14" s="7">
-        <v>293407600</v>
+        <v>271206700</v>
       </c>
       <c r="J14" s="7">
-        <v>173820</v>
+        <v>160004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75">
@@ -3491,19 +3491,19 @@
         <v>14</v>
       </c>
       <c r="F15" s="7">
-        <v>18466</v>
+        <v>18832</v>
       </c>
       <c r="G15" s="7">
-        <v>1254293000</v>
+        <v>1000740000</v>
       </c>
       <c r="H15" s="7">
-        <v>67924</v>
+        <v>53140</v>
       </c>
       <c r="I15" s="7">
-        <v>3593981200</v>
+        <v>3214888000</v>
       </c>
       <c r="J15" s="7">
-        <v>194627</v>
+        <v>170714</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75">
@@ -3523,19 +3523,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="7">
-        <v>11897</v>
+        <v>11945</v>
       </c>
       <c r="G16" s="7">
-        <v>297621000</v>
+        <v>263264000</v>
       </c>
       <c r="H16" s="7">
-        <v>25016</v>
+        <v>22040</v>
       </c>
       <c r="I16" s="7">
-        <v>1060563000</v>
+        <v>880913600</v>
       </c>
       <c r="J16" s="7">
-        <v>89145</v>
+        <v>73747</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
@@ -3555,19 +3555,19 @@
         <v>14</v>
       </c>
       <c r="F17" s="7">
-        <v>46601</v>
+        <v>46461</v>
       </c>
       <c r="G17" s="7">
-        <v>1863620000</v>
+        <v>1606767000</v>
       </c>
       <c r="H17" s="7">
-        <v>39991</v>
+        <v>34583</v>
       </c>
       <c r="I17" s="7">
-        <v>5949246000</v>
+        <v>5286614900</v>
       </c>
       <c r="J17" s="7">
-        <v>127663</v>
+        <v>113786</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75">
@@ -3587,19 +3587,19 @@
         <v>14</v>
       </c>
       <c r="F18" s="7">
-        <v>16762</v>
+        <v>16889</v>
       </c>
       <c r="G18" s="7">
-        <v>708058000</v>
+        <v>651647000</v>
       </c>
       <c r="H18" s="7">
-        <v>42242</v>
+        <v>38584</v>
       </c>
       <c r="I18" s="7">
-        <v>2748972400</v>
+        <v>2423368200</v>
       </c>
       <c r="J18" s="7">
-        <v>164000</v>
+        <v>143488</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75">
@@ -3619,19 +3619,19 @@
         <v>14</v>
       </c>
       <c r="F19" s="7">
-        <v>4735</v>
+        <v>4777</v>
       </c>
       <c r="G19" s="7">
-        <v>213586000</v>
+        <v>174641000</v>
       </c>
       <c r="H19" s="7">
-        <v>45108</v>
+        <v>36559</v>
       </c>
       <c r="I19" s="7">
-        <v>1081305500</v>
+        <v>912879000</v>
       </c>
       <c r="J19" s="7">
-        <v>228364</v>
+        <v>191099</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -3651,19 +3651,19 @@
         <v>14</v>
       </c>
       <c r="F20" s="7">
-        <v>8424</v>
+        <v>8479</v>
       </c>
       <c r="G20" s="7">
-        <v>374452000</v>
+        <v>316196000</v>
       </c>
       <c r="H20" s="7">
-        <v>44451</v>
+        <v>37292</v>
       </c>
       <c r="I20" s="7">
-        <v>1529467100</v>
+        <v>1414841800</v>
       </c>
       <c r="J20" s="7">
-        <v>181561</v>
+        <v>166864</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75">
@@ -3683,19 +3683,19 @@
         <v>14</v>
       </c>
       <c r="F21" s="7">
-        <v>49532</v>
+        <v>48916</v>
       </c>
       <c r="G21" s="7">
-        <v>2661860000</v>
+        <v>2008186000</v>
       </c>
       <c r="H21" s="7">
-        <v>53740</v>
+        <v>41054</v>
       </c>
       <c r="I21" s="7">
-        <v>18221137000</v>
+        <v>16031008100</v>
       </c>
       <c r="J21" s="7">
-        <v>367866</v>
+        <v>327725</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75">
@@ -3715,19 +3715,19 @@
         <v>14</v>
       </c>
       <c r="F22" s="7">
-        <v>5533</v>
+        <v>5530</v>
       </c>
       <c r="G22" s="7">
-        <v>181866000</v>
+        <v>155707000</v>
       </c>
       <c r="H22" s="7">
-        <v>32869</v>
+        <v>28157</v>
       </c>
       <c r="I22" s="7">
-        <v>583632100</v>
+        <v>507030500</v>
       </c>
       <c r="J22" s="7">
-        <v>105482</v>
+        <v>91687</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75">
@@ -3750,16 +3750,16 @@
         <v>1931</v>
       </c>
       <c r="G23" s="7">
-        <v>69919000</v>
+        <v>56000000</v>
       </c>
       <c r="H23" s="7">
-        <v>36209</v>
+        <v>29001</v>
       </c>
       <c r="I23" s="7">
-        <v>630004600</v>
+        <v>558339300</v>
       </c>
       <c r="J23" s="7">
-        <v>326258</v>
+        <v>289145</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75">
@@ -3779,19 +3779,19 @@
         <v>14</v>
       </c>
       <c r="F24" s="7">
-        <v>14161</v>
+        <v>14383</v>
       </c>
       <c r="G24" s="7">
-        <v>1482905000</v>
+        <v>1093494000</v>
       </c>
       <c r="H24" s="7">
-        <v>104718</v>
+        <v>76027</v>
       </c>
       <c r="I24" s="7">
-        <v>4632427000</v>
+        <v>4399434500</v>
       </c>
       <c r="J24" s="7">
-        <v>327126</v>
+        <v>305877</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
@@ -3811,19 +3811,19 @@
         <v>14</v>
       </c>
       <c r="F25" s="7">
-        <v>15316</v>
+        <v>15350</v>
       </c>
       <c r="G25" s="7">
-        <v>643145000</v>
+        <v>565700000</v>
       </c>
       <c r="H25" s="7">
-        <v>41992</v>
+        <v>36853</v>
       </c>
       <c r="I25" s="7">
-        <v>1889367600</v>
+        <v>1706796100</v>
       </c>
       <c r="J25" s="7">
-        <v>123359</v>
+        <v>111192</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75">
@@ -3843,19 +3843,19 @@
         <v>14</v>
       </c>
       <c r="F26" s="7">
-        <v>17407</v>
+        <v>16945</v>
       </c>
       <c r="G26" s="7">
-        <v>746199000</v>
+        <v>650983000</v>
       </c>
       <c r="H26" s="7">
-        <v>42868</v>
+        <v>38417</v>
       </c>
       <c r="I26" s="7">
-        <v>3317158400</v>
+        <v>2853759500</v>
       </c>
       <c r="J26" s="7">
-        <v>190565</v>
+        <v>168413</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75">
@@ -3875,19 +3875,19 @@
         <v>14</v>
       </c>
       <c r="F27" s="7">
-        <v>26710</v>
+        <v>27295</v>
       </c>
       <c r="G27" s="7">
-        <v>3763630000</v>
+        <v>2673968000</v>
       </c>
       <c r="H27" s="7">
-        <v>140907</v>
+        <v>97965</v>
       </c>
       <c r="I27" s="7">
-        <v>10384380400</v>
+        <v>9840875900</v>
       </c>
       <c r="J27" s="7">
-        <v>388782</v>
+        <v>360538</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75">
@@ -3907,19 +3907,19 @@
         <v>14</v>
       </c>
       <c r="F28" s="7">
-        <v>6797</v>
+        <v>6764</v>
       </c>
       <c r="G28" s="7">
-        <v>323269000</v>
+        <v>283733000</v>
       </c>
       <c r="H28" s="7">
-        <v>47561</v>
+        <v>41948</v>
       </c>
       <c r="I28" s="7">
-        <v>1087861600</v>
+        <v>971888500</v>
       </c>
       <c r="J28" s="7">
-        <v>160050</v>
+        <v>143685</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75">
@@ -3939,19 +3939,19 @@
         <v>14</v>
       </c>
       <c r="F29" s="7">
-        <v>4189</v>
+        <v>3158</v>
       </c>
       <c r="G29" s="7">
-        <v>255252000</v>
+        <v>187295000</v>
       </c>
       <c r="H29" s="7">
-        <v>60934</v>
+        <v>59308</v>
       </c>
       <c r="I29" s="7">
-        <v>775450700</v>
+        <v>710453400</v>
       </c>
       <c r="J29" s="7">
-        <v>185116</v>
+        <v>224969</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75">
@@ -3971,19 +3971,19 @@
         <v>14</v>
       </c>
       <c r="F30" s="7">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="G30" s="7">
-        <v>78888000</v>
+        <v>66410000</v>
       </c>
       <c r="H30" s="7">
-        <v>37494</v>
+        <v>31594</v>
       </c>
       <c r="I30" s="7">
-        <v>289619100</v>
+        <v>248325200</v>
       </c>
       <c r="J30" s="7">
-        <v>137652</v>
+        <v>118138</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75">
@@ -4003,19 +4003,19 @@
         <v>14</v>
       </c>
       <c r="F31" s="7">
-        <v>42235</v>
+        <v>42670</v>
       </c>
       <c r="G31" s="7">
-        <v>2638106000</v>
+        <v>2147810000</v>
       </c>
       <c r="H31" s="7">
-        <v>62463</v>
+        <v>50335</v>
       </c>
       <c r="I31" s="7">
-        <v>8971044300</v>
+        <v>7994706700</v>
       </c>
       <c r="J31" s="7">
-        <v>212408</v>
+        <v>187361</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
@@ -4035,19 +4035,19 @@
         <v>14</v>
       </c>
       <c r="F32" s="7">
-        <v>41319</v>
+        <v>42119</v>
       </c>
       <c r="G32" s="7">
-        <v>2117423000</v>
+        <v>1792705000</v>
       </c>
       <c r="H32" s="7">
-        <v>51246</v>
+        <v>42563</v>
       </c>
       <c r="I32" s="7">
-        <v>9046472000</v>
+        <v>7998669600</v>
       </c>
       <c r="J32" s="7">
-        <v>218942</v>
+        <v>189906</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
@@ -4067,19 +4067,19 @@
         <v>14</v>
       </c>
       <c r="F33" s="7">
-        <v>9211</v>
+        <v>9208</v>
       </c>
       <c r="G33" s="7">
-        <v>354452000</v>
+        <v>321491000</v>
       </c>
       <c r="H33" s="7">
-        <v>38481</v>
+        <v>34914</v>
       </c>
       <c r="I33" s="7">
-        <v>1231116000</v>
+        <v>1075325500</v>
       </c>
       <c r="J33" s="7">
-        <v>133657</v>
+        <v>116782</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75">
@@ -4099,19 +4099,19 @@
         <v>14</v>
       </c>
       <c r="F34" s="7">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="G34" s="7">
-        <v>43557000</v>
+        <v>39447000</v>
       </c>
       <c r="H34" s="7">
-        <v>35998</v>
+        <v>32467</v>
       </c>
       <c r="I34" s="7">
-        <v>241062700</v>
+        <v>180760100</v>
       </c>
       <c r="J34" s="7">
-        <v>199225</v>
+        <v>148774</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75">
@@ -4131,19 +4131,19 @@
         <v>14</v>
       </c>
       <c r="F35" s="7">
-        <v>5728</v>
+        <v>5665</v>
       </c>
       <c r="G35" s="7">
-        <v>568334000</v>
+        <v>452935000</v>
       </c>
       <c r="H35" s="7">
-        <v>99220</v>
+        <v>79953</v>
       </c>
       <c r="I35" s="7">
-        <v>1307897000</v>
+        <v>1191544800</v>
       </c>
       <c r="J35" s="7">
-        <v>228334</v>
+        <v>210334</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75">
@@ -4163,19 +4163,19 @@
         <v>14</v>
       </c>
       <c r="F36" s="7">
-        <v>650706</v>
+        <v>675647</v>
       </c>
       <c r="G36" s="7">
-        <v>49961353000</v>
+        <v>37186003000</v>
       </c>
       <c r="H36" s="7">
-        <v>76780</v>
+        <v>55038</v>
       </c>
       <c r="I36" s="7">
-        <v>226367656500</v>
+        <v>203894526100</v>
       </c>
       <c r="J36" s="7">
-        <v>347880</v>
+        <v>301777</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75">
@@ -4195,19 +4195,19 @@
         <v>14</v>
       </c>
       <c r="F37" s="7">
-        <v>20667</v>
+        <v>20452</v>
       </c>
       <c r="G37" s="7">
-        <v>1041101000</v>
+        <v>819472000</v>
       </c>
       <c r="H37" s="7">
-        <v>50375</v>
+        <v>40068</v>
       </c>
       <c r="I37" s="7">
-        <v>5710427600</v>
+        <v>5178654100</v>
       </c>
       <c r="J37" s="7">
-        <v>276307</v>
+        <v>253210</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75">
@@ -4227,19 +4227,19 @@
         <v>14</v>
       </c>
       <c r="F38" s="7">
-        <v>5412</v>
+        <v>5506</v>
       </c>
       <c r="G38" s="7">
-        <v>502257000</v>
+        <v>364645000</v>
       </c>
       <c r="H38" s="7">
-        <v>92804</v>
+        <v>66227</v>
       </c>
       <c r="I38" s="7">
-        <v>1364276100</v>
+        <v>1245735100</v>
       </c>
       <c r="J38" s="7">
-        <v>252084</v>
+        <v>226250</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75">
@@ -4259,19 +4259,19 @@
         <v>14</v>
       </c>
       <c r="F39" s="7">
-        <v>8112</v>
+        <v>8203</v>
       </c>
       <c r="G39" s="7">
-        <v>1174940000</v>
+        <v>907352000</v>
       </c>
       <c r="H39" s="7">
-        <v>144840</v>
+        <v>110612</v>
       </c>
       <c r="I39" s="7">
-        <v>2248921600</v>
+        <v>2027205500</v>
       </c>
       <c r="J39" s="7">
-        <v>277234</v>
+        <v>247130</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75">
@@ -4291,19 +4291,19 @@
         <v>14</v>
       </c>
       <c r="F40" s="7">
-        <v>4924</v>
+        <v>4849</v>
       </c>
       <c r="G40" s="7">
-        <v>387762000</v>
+        <v>306364000</v>
       </c>
       <c r="H40" s="7">
-        <v>78749</v>
+        <v>63181</v>
       </c>
       <c r="I40" s="7">
-        <v>1023674500</v>
+        <v>894665100</v>
       </c>
       <c r="J40" s="7">
-        <v>207895</v>
+        <v>184505</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75">
@@ -4323,19 +4323,19 @@
         <v>14</v>
       </c>
       <c r="F41" s="7">
-        <v>38567</v>
+        <v>39143</v>
       </c>
       <c r="G41" s="7">
-        <v>2074879000</v>
+        <v>1741785000</v>
       </c>
       <c r="H41" s="7">
-        <v>53799</v>
+        <v>44498</v>
       </c>
       <c r="I41" s="7">
-        <v>8924863200</v>
+        <v>8213296300</v>
       </c>
       <c r="J41" s="7">
-        <v>231412</v>
+        <v>209828</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75">
@@ -4355,19 +4355,19 @@
         <v>14</v>
       </c>
       <c r="F42" s="7">
-        <v>10444</v>
+        <v>10318</v>
       </c>
       <c r="G42" s="7">
-        <v>548709000</v>
+        <v>433996000</v>
       </c>
       <c r="H42" s="7">
-        <v>52538</v>
+        <v>42062</v>
       </c>
       <c r="I42" s="7">
-        <v>4941374200</v>
+        <v>4380442300</v>
       </c>
       <c r="J42" s="7">
-        <v>473130</v>
+        <v>424544</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.75">
@@ -4387,19 +4387,19 @@
         <v>14</v>
       </c>
       <c r="F43" s="7">
-        <v>28780</v>
+        <v>28633</v>
       </c>
       <c r="G43" s="7">
-        <v>1184040000</v>
+        <v>977567000</v>
       </c>
       <c r="H43" s="7">
-        <v>41141</v>
+        <v>34141</v>
       </c>
       <c r="I43" s="7">
-        <v>3904478200</v>
+        <v>3400108700</v>
       </c>
       <c r="J43" s="7">
-        <v>135666</v>
+        <v>118748</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75">
@@ -4419,19 +4419,19 @@
         <v>14</v>
       </c>
       <c r="F44" s="7">
-        <v>3690</v>
+        <v>3694</v>
       </c>
       <c r="G44" s="7">
-        <v>165106000</v>
+        <v>150717000</v>
       </c>
       <c r="H44" s="7">
-        <v>44744</v>
+        <v>40800</v>
       </c>
       <c r="I44" s="7">
-        <v>523323600</v>
+        <v>466597600</v>
       </c>
       <c r="J44" s="7">
-        <v>141822</v>
+        <v>126312</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75">
@@ -4451,19 +4451,19 @@
         <v>14</v>
       </c>
       <c r="F45" s="7">
-        <v>104826</v>
+        <v>105643</v>
       </c>
       <c r="G45" s="7">
-        <v>2588984000</v>
+        <v>2294511000</v>
       </c>
       <c r="H45" s="7">
-        <v>24698</v>
+        <v>21719</v>
       </c>
       <c r="I45" s="7">
-        <v>10593077300</v>
+        <v>8886561300</v>
       </c>
       <c r="J45" s="7">
-        <v>101054</v>
+        <v>84119</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75">
@@ -4483,19 +4483,19 @@
         <v>14</v>
       </c>
       <c r="F46" s="7">
-        <v>3432</v>
+        <v>3439</v>
       </c>
       <c r="G46" s="7">
-        <v>119304000</v>
+        <v>102428000</v>
       </c>
       <c r="H46" s="7">
-        <v>34762</v>
+        <v>29784</v>
       </c>
       <c r="I46" s="7">
-        <v>370083900</v>
+        <v>312533400</v>
       </c>
       <c r="J46" s="7">
-        <v>107833</v>
+        <v>90879</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75">
@@ -4515,19 +4515,19 @@
         <v>14</v>
       </c>
       <c r="F47" s="7">
-        <v>62535</v>
+        <v>63191</v>
       </c>
       <c r="G47" s="7">
-        <v>8103015000</v>
+        <v>5258060000</v>
       </c>
       <c r="H47" s="7">
-        <v>129576</v>
+        <v>83209</v>
       </c>
       <c r="I47" s="7">
-        <v>29895594800</v>
+        <v>28147948700</v>
       </c>
       <c r="J47" s="7">
-        <v>478062</v>
+        <v>445442</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75">
@@ -4547,19 +4547,19 @@
         <v>14</v>
       </c>
       <c r="F48" s="7">
-        <v>1810</v>
+        <v>1816</v>
       </c>
       <c r="G48" s="7">
-        <v>9307000</v>
+        <v>44572050</v>
       </c>
       <c r="H48" s="7">
-        <v>5142</v>
+        <v>24544</v>
       </c>
       <c r="I48" s="7">
-        <v>270428900</v>
+        <v>236099700</v>
       </c>
       <c r="J48" s="7">
-        <v>149408</v>
+        <v>130011</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75">
@@ -4579,19 +4579,19 @@
         <v>14</v>
       </c>
       <c r="F49" s="7">
-        <v>25966</v>
+        <v>26377</v>
       </c>
       <c r="G49" s="7">
-        <v>1715507000</v>
+        <v>1423904000</v>
       </c>
       <c r="H49" s="7">
-        <v>66067</v>
+        <v>53983</v>
       </c>
       <c r="I49" s="7">
-        <v>9008541100</v>
+        <v>8100649200</v>
       </c>
       <c r="J49" s="7">
-        <v>346936</v>
+        <v>307110</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.75">
@@ -4611,19 +4611,19 @@
         <v>14</v>
       </c>
       <c r="F50" s="7">
-        <v>118488</v>
+        <v>118403</v>
       </c>
       <c r="G50" s="7">
-        <v>11053450000</v>
+        <v>8626740000</v>
       </c>
       <c r="H50" s="7">
-        <v>93288</v>
+        <v>72859</v>
       </c>
       <c r="I50" s="7">
-        <v>70337058800</v>
+        <v>63505735500</v>
       </c>
       <c r="J50" s="7">
-        <v>593622</v>
+        <v>536352</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75">
@@ -4643,19 +4643,19 @@
         <v>14</v>
       </c>
       <c r="F51" s="7">
-        <v>24609</v>
+        <v>24370</v>
       </c>
       <c r="G51" s="7">
-        <v>1924272000</v>
+        <v>1466824000</v>
       </c>
       <c r="H51" s="7">
-        <v>78194</v>
+        <v>60190</v>
       </c>
       <c r="I51" s="7">
-        <v>6376735000</v>
+        <v>5664784600</v>
       </c>
       <c r="J51" s="7">
-        <v>259122</v>
+        <v>232449</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75">
@@ -4675,19 +4675,19 @@
         <v>14</v>
       </c>
       <c r="F52" s="7">
-        <v>5157</v>
+        <v>5237</v>
       </c>
       <c r="G52" s="7">
-        <v>1066804000</v>
+        <v>696005000</v>
       </c>
       <c r="H52" s="7">
-        <v>206865</v>
+        <v>132901</v>
       </c>
       <c r="I52" s="7">
-        <v>1841728700</v>
+        <v>1657167300</v>
       </c>
       <c r="J52" s="7">
-        <v>357132</v>
+        <v>316434</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75">
@@ -4707,19 +4707,19 @@
         <v>14</v>
       </c>
       <c r="F53" s="7">
-        <v>11626</v>
+        <v>11645</v>
       </c>
       <c r="G53" s="7">
-        <v>443993000</v>
+        <v>414530000</v>
       </c>
       <c r="H53" s="7">
-        <v>38190</v>
+        <v>35597</v>
       </c>
       <c r="I53" s="7">
-        <v>1736816700</v>
+        <v>1542843600</v>
       </c>
       <c r="J53" s="7">
-        <v>149391</v>
+        <v>132490</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75">
@@ -4739,19 +4739,19 @@
         <v>14</v>
       </c>
       <c r="F54" s="7">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="G54" s="7">
-        <v>34318000</v>
+        <v>28506000</v>
       </c>
       <c r="H54" s="7">
-        <v>29058</v>
+        <v>24056</v>
       </c>
       <c r="I54" s="7">
-        <v>155406800</v>
+        <v>147289000</v>
       </c>
       <c r="J54" s="7">
-        <v>131589</v>
+        <v>124295</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.75">
@@ -4771,19 +4771,19 @@
         <v>14</v>
       </c>
       <c r="F55" s="7">
-        <v>13360</v>
+        <v>13315</v>
       </c>
       <c r="G55" s="7">
-        <v>625937000</v>
+        <v>544329000</v>
       </c>
       <c r="H55" s="7">
-        <v>46852</v>
+        <v>40881</v>
       </c>
       <c r="I55" s="7">
-        <v>2225215400</v>
+        <v>1794497600</v>
       </c>
       <c r="J55" s="7">
-        <v>166558</v>
+        <v>134773</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.75">
@@ -4803,19 +4803,19 @@
         <v>14</v>
       </c>
       <c r="F56" s="7">
-        <v>6711</v>
+        <v>6594</v>
       </c>
       <c r="G56" s="7">
-        <v>641046000</v>
+        <v>462832000</v>
       </c>
       <c r="H56" s="7">
-        <v>95522</v>
+        <v>70190</v>
       </c>
       <c r="I56" s="7">
-        <v>8768778800</v>
+        <v>7904158600</v>
       </c>
       <c r="J56" s="7">
-        <v>1306628</v>
+        <v>1198690</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.75">
@@ -4835,19 +4835,19 @@
         <v>14</v>
       </c>
       <c r="F57" s="7">
-        <v>35906</v>
+        <v>36392</v>
       </c>
       <c r="G57" s="7">
-        <v>2403772000</v>
+        <v>2065597000</v>
       </c>
       <c r="H57" s="7">
-        <v>66946</v>
+        <v>56760</v>
       </c>
       <c r="I57" s="7">
-        <v>7194279300</v>
+        <v>6551073600</v>
       </c>
       <c r="J57" s="7">
-        <v>200364</v>
+        <v>180014</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.75">
@@ -4867,19 +4867,19 @@
         <v>14</v>
       </c>
       <c r="F58" s="7">
-        <v>38637</v>
+        <v>40787</v>
       </c>
       <c r="G58" s="7">
-        <v>954502000</v>
+        <v>863146000</v>
       </c>
       <c r="H58" s="7">
-        <v>24704</v>
+        <v>21162</v>
       </c>
       <c r="I58" s="7">
-        <v>5133648900</v>
+        <v>4225152600</v>
       </c>
       <c r="J58" s="7">
-        <v>132869</v>
+        <v>103591</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.75">
@@ -4899,19 +4899,19 @@
         <v>14</v>
       </c>
       <c r="F59" s="7">
-        <v>3215</v>
+        <v>3258</v>
       </c>
       <c r="G59" s="7">
-        <v>116368000</v>
+        <v>100720000</v>
       </c>
       <c r="H59" s="7">
-        <v>36195</v>
+        <v>30915</v>
       </c>
       <c r="I59" s="7">
-        <v>380218700</v>
+        <v>327182900</v>
       </c>
       <c r="J59" s="7">
-        <v>118264</v>
+        <v>100424</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75">
@@ -4931,19 +4931,19 @@
         <v>14</v>
       </c>
       <c r="F60" s="7">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="G60" s="7">
-        <v>37246000</v>
+        <v>31514000</v>
       </c>
       <c r="H60" s="7">
-        <v>30530</v>
+        <v>25663</v>
       </c>
       <c r="I60" s="7">
-        <v>150115400</v>
+        <v>129904800</v>
       </c>
       <c r="J60" s="7">
-        <v>123045</v>
+        <v>105786</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.75">
@@ -4963,19 +4963,19 @@
         <v>14</v>
       </c>
       <c r="F61" s="7">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="G61" s="7">
-        <v>29463000</v>
+        <v>37028000</v>
       </c>
       <c r="H61" s="7">
-        <v>25075</v>
+        <v>31221</v>
       </c>
       <c r="I61" s="7">
-        <v>190606900</v>
+        <v>165075500</v>
       </c>
       <c r="J61" s="7">
-        <v>162219</v>
+        <v>139187</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.75">
@@ -4995,19 +4995,19 @@
         <v>14</v>
       </c>
       <c r="F62" s="7">
-        <v>54980</v>
+        <v>55560</v>
       </c>
       <c r="G62" s="7">
-        <v>1348503000</v>
+        <v>1217103000</v>
       </c>
       <c r="H62" s="7">
-        <v>24527</v>
+        <v>21906</v>
       </c>
       <c r="I62" s="7">
-        <v>4667842700</v>
+        <v>4282298400</v>
       </c>
       <c r="J62" s="7">
-        <v>84901</v>
+        <v>77075</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.75">
@@ -5027,19 +5027,19 @@
         <v>14</v>
       </c>
       <c r="F63" s="7">
-        <v>1235</v>
+        <v>1212</v>
       </c>
       <c r="G63" s="7">
-        <v>128312000</v>
+        <v>84756000</v>
       </c>
       <c r="H63" s="7">
-        <v>103896</v>
+        <v>69931</v>
       </c>
       <c r="I63" s="7">
-        <v>3878126000</v>
+        <v>3657005200</v>
       </c>
       <c r="J63" s="7">
-        <v>3140183</v>
+        <v>3017331</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="12.75">
@@ -5059,19 +5059,19 @@
         <v>14</v>
       </c>
       <c r="F64" s="7">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="G64" s="7">
-        <v>48425000</v>
+        <v>42428000</v>
       </c>
       <c r="H64" s="7">
-        <v>29474</v>
+        <v>25605</v>
       </c>
       <c r="I64" s="7">
-        <v>149674900</v>
+        <v>133566700</v>
       </c>
       <c r="J64" s="7">
-        <v>91099</v>
+        <v>80608</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
@@ -5091,19 +5091,19 @@
         <v>14</v>
       </c>
       <c r="F65" s="7">
-        <v>15484</v>
+        <v>15428</v>
       </c>
       <c r="G65" s="7">
-        <v>541547000</v>
+        <v>473675000</v>
       </c>
       <c r="H65" s="7">
-        <v>34975</v>
+        <v>30702</v>
       </c>
       <c r="I65" s="7">
-        <v>1853848200</v>
+        <v>1653168200</v>
       </c>
       <c r="J65" s="7">
-        <v>119727</v>
+        <v>107154</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="12.75">
@@ -5123,19 +5123,19 @@
         <v>14</v>
       </c>
       <c r="F66" s="7">
-        <v>8346</v>
+        <v>8381</v>
       </c>
       <c r="G66" s="7">
-        <v>1547972000</v>
+        <v>1097715000</v>
       </c>
       <c r="H66" s="7">
-        <v>185475</v>
+        <v>130977</v>
       </c>
       <c r="I66" s="7">
-        <v>3547050800</v>
+        <v>3240448100</v>
       </c>
       <c r="J66" s="7">
-        <v>425000</v>
+        <v>386642</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="12.75">
@@ -5155,19 +5155,19 @@
         <v>14</v>
       </c>
       <c r="F67" s="7">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="G67" s="7">
-        <v>52497000</v>
+        <v>45888000</v>
       </c>
       <c r="H67" s="7">
-        <v>32466</v>
+        <v>28573</v>
       </c>
       <c r="I67" s="7">
-        <v>203121700</v>
+        <v>182644300</v>
       </c>
       <c r="J67" s="7">
-        <v>125616</v>
+        <v>113726</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75">
@@ -5187,19 +5187,19 @@
         <v>14</v>
       </c>
       <c r="F68" s="7">
-        <v>17954</v>
+        <v>18491</v>
       </c>
       <c r="G68" s="7">
-        <v>4071649000</v>
+        <v>2815154000</v>
       </c>
       <c r="H68" s="7">
-        <v>226782</v>
+        <v>152245</v>
       </c>
       <c r="I68" s="7">
-        <v>7337635800</v>
+        <v>7134203400</v>
       </c>
       <c r="J68" s="7">
-        <v>408691</v>
+        <v>385820</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12.75">
@@ -5219,19 +5219,19 @@
         <v>14</v>
       </c>
       <c r="F69" s="7">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G69" s="7">
-        <v>84070000</v>
+        <v>65789000</v>
       </c>
       <c r="H69" s="7">
-        <v>47767</v>
+        <v>37359</v>
       </c>
       <c r="I69" s="7">
-        <v>298724500</v>
+        <v>272849200</v>
       </c>
       <c r="J69" s="7">
-        <v>169730</v>
+        <v>154940</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75">
@@ -5251,19 +5251,19 @@
         <v>14</v>
       </c>
       <c r="F70" s="7">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="G70" s="7">
-        <v>53063000</v>
+        <v>25931000</v>
       </c>
       <c r="H70" s="7">
-        <v>64869</v>
+        <v>31280</v>
       </c>
       <c r="I70" s="7">
-        <v>153578200</v>
+        <v>136764000</v>
       </c>
       <c r="J70" s="7">
-        <v>187748</v>
+        <v>164975</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75">
@@ -5283,19 +5283,19 @@
         <v>14</v>
       </c>
       <c r="F71" s="7">
-        <v>6236</v>
+        <v>6330</v>
       </c>
       <c r="G71" s="7">
-        <v>247394000</v>
+        <v>216785000</v>
       </c>
       <c r="H71" s="7">
-        <v>39672</v>
+        <v>34247</v>
       </c>
       <c r="I71" s="7">
-        <v>732087000</v>
+        <v>659304000</v>
       </c>
       <c r="J71" s="7">
-        <v>117397</v>
+        <v>104155</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12.75">
@@ -5315,19 +5315,19 @@
         <v>14</v>
       </c>
       <c r="F72" s="7">
-        <v>27781</v>
+        <v>28087</v>
       </c>
       <c r="G72" s="7">
-        <v>1676555000</v>
+        <v>1359576000</v>
       </c>
       <c r="H72" s="7">
-        <v>60349</v>
+        <v>48406</v>
       </c>
       <c r="I72" s="7">
-        <v>6417792300</v>
+        <v>5748464900</v>
       </c>
       <c r="J72" s="7">
-        <v>231014</v>
+        <v>204666</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75">
@@ -5347,19 +5347,19 @@
         <v>14</v>
       </c>
       <c r="F73" s="7">
-        <v>33406</v>
+        <v>33783</v>
       </c>
       <c r="G73" s="7">
-        <v>1647371000</v>
+        <v>1413488000</v>
       </c>
       <c r="H73" s="7">
-        <v>49314</v>
+        <v>41840</v>
       </c>
       <c r="I73" s="7">
-        <v>6798935400</v>
+        <v>6198070600</v>
       </c>
       <c r="J73" s="7">
-        <v>203524</v>
+        <v>183467</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="12.75">
@@ -5379,19 +5379,19 @@
         <v>14</v>
       </c>
       <c r="F74" s="7">
-        <v>24997</v>
+        <v>25364</v>
       </c>
       <c r="G74" s="7">
-        <v>1947076000</v>
+        <v>1544132000</v>
       </c>
       <c r="H74" s="7">
-        <v>77892</v>
+        <v>60879</v>
       </c>
       <c r="I74" s="7">
-        <v>6593838900</v>
+        <v>5863555800</v>
       </c>
       <c r="J74" s="7">
-        <v>263785</v>
+        <v>231176</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="12.75">
@@ -5411,19 +5411,19 @@
         <v>14</v>
       </c>
       <c r="F75" s="7">
-        <v>5162</v>
+        <v>5090</v>
       </c>
       <c r="G75" s="7">
-        <v>279111000</v>
+        <v>236065000</v>
       </c>
       <c r="H75" s="7">
-        <v>54070</v>
+        <v>46378</v>
       </c>
       <c r="I75" s="7">
-        <v>869370900</v>
+        <v>808941100</v>
       </c>
       <c r="J75" s="7">
-        <v>168417</v>
+        <v>158928</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="12.75">
@@ -5443,19 +5443,19 @@
         <v>14</v>
       </c>
       <c r="F76" s="7">
-        <v>14932</v>
+        <v>14674</v>
       </c>
       <c r="G76" s="7">
-        <v>820126000</v>
+        <v>576790000</v>
       </c>
       <c r="H76" s="7">
-        <v>54924</v>
+        <v>39307</v>
       </c>
       <c r="I76" s="7">
-        <v>8912902400</v>
+        <v>7955584100</v>
       </c>
       <c r="J76" s="7">
-        <v>596899</v>
+        <v>542155</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.75">
@@ -5475,19 +5475,19 @@
         <v>14</v>
       </c>
       <c r="F77" s="7">
-        <v>8168</v>
+        <v>8101</v>
       </c>
       <c r="G77" s="7">
-        <v>349022000</v>
+        <v>302643000</v>
       </c>
       <c r="H77" s="7">
-        <v>42730</v>
+        <v>37359</v>
       </c>
       <c r="I77" s="7">
-        <v>1314856400</v>
+        <v>1162938400</v>
       </c>
       <c r="J77" s="7">
-        <v>160977</v>
+        <v>143555</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.75">
@@ -5507,19 +5507,19 @@
         <v>14</v>
       </c>
       <c r="F78" s="7">
-        <v>9153</v>
+        <v>8983</v>
       </c>
       <c r="G78" s="7">
-        <v>438813000</v>
+        <v>360048000</v>
       </c>
       <c r="H78" s="7">
-        <v>47942</v>
+        <v>40081</v>
       </c>
       <c r="I78" s="7">
-        <v>1302158500</v>
+        <v>1154562000</v>
       </c>
       <c r="J78" s="7">
-        <v>142266</v>
+        <v>128527</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.75">
@@ -5539,19 +5539,19 @@
         <v>14</v>
       </c>
       <c r="F79" s="7">
-        <v>5860</v>
+        <v>5923</v>
       </c>
       <c r="G79" s="7">
-        <v>2117733000</v>
+        <v>1455913000</v>
       </c>
       <c r="H79" s="7">
-        <v>361388</v>
+        <v>245807</v>
       </c>
       <c r="I79" s="7">
-        <v>2854881300</v>
+        <v>2831290600</v>
       </c>
       <c r="J79" s="7">
-        <v>487181</v>
+        <v>478016</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75">
@@ -5571,19 +5571,19 @@
         <v>14</v>
       </c>
       <c r="F80" s="7">
-        <v>32060</v>
+        <v>32617</v>
       </c>
       <c r="G80" s="7">
-        <v>1366275000</v>
+        <v>1183256000</v>
       </c>
       <c r="H80" s="7">
-        <v>42616</v>
+        <v>36277</v>
       </c>
       <c r="I80" s="7">
-        <v>4790569000</v>
+        <v>4153988500</v>
       </c>
       <c r="J80" s="7">
-        <v>149425</v>
+        <v>127357</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="12.75">
@@ -5603,19 +5603,19 @@
         <v>14</v>
       </c>
       <c r="F81" s="7">
-        <v>11850</v>
+        <v>11921</v>
       </c>
       <c r="G81" s="7">
-        <v>403891000</v>
+        <v>352426000</v>
       </c>
       <c r="H81" s="7">
-        <v>34084</v>
+        <v>29563</v>
       </c>
       <c r="I81" s="7">
-        <v>1305684900</v>
+        <v>1146095200</v>
       </c>
       <c r="J81" s="7">
-        <v>110184</v>
+        <v>96141</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="12.75">
@@ -5635,19 +5635,19 @@
         <v>14</v>
       </c>
       <c r="F82" s="7">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="G82" s="7">
-        <v>253941000</v>
+        <v>225804000</v>
       </c>
       <c r="H82" s="7">
-        <v>75690</v>
+        <v>67244</v>
       </c>
       <c r="I82" s="7">
-        <v>708127800</v>
+        <v>606991900</v>
       </c>
       <c r="J82" s="7">
-        <v>211066</v>
+        <v>180760</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.75">
@@ -5667,19 +5667,19 @@
         <v>14</v>
       </c>
       <c r="F83" s="7">
-        <v>16107</v>
+        <v>16090</v>
       </c>
       <c r="G83" s="7">
-        <v>2100585000</v>
+        <v>1831514000</v>
       </c>
       <c r="H83" s="7">
-        <v>130414</v>
+        <v>113829</v>
       </c>
       <c r="I83" s="7">
-        <v>5389486400</v>
+        <v>4654728300</v>
       </c>
       <c r="J83" s="7">
-        <v>334605</v>
+        <v>289293</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12.75">
@@ -5699,19 +5699,19 @@
         <v>14</v>
       </c>
       <c r="F84" s="7">
-        <v>14338</v>
+        <v>14440</v>
       </c>
       <c r="G84" s="7">
-        <v>612754000</v>
+        <v>545081000</v>
       </c>
       <c r="H84" s="7">
-        <v>42736</v>
+        <v>37748</v>
       </c>
       <c r="I84" s="7">
-        <v>2211733200</v>
+        <v>1926835300</v>
       </c>
       <c r="J84" s="7">
-        <v>154257</v>
+        <v>133437</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="12.75">
@@ -5731,19 +5731,19 @@
         <v>14</v>
       </c>
       <c r="F85" s="7">
-        <v>2204</v>
+        <v>2224</v>
       </c>
       <c r="G85" s="7">
-        <v>84306000</v>
+        <v>77494000</v>
       </c>
       <c r="H85" s="7">
-        <v>38251</v>
+        <v>34844</v>
       </c>
       <c r="I85" s="7">
-        <v>319420900</v>
+        <v>278867500</v>
       </c>
       <c r="J85" s="7">
-        <v>144928</v>
+        <v>125390</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12.75">
@@ -5763,19 +5763,19 @@
         <v>14</v>
       </c>
       <c r="F86" s="7">
-        <v>16343</v>
+        <v>16430</v>
       </c>
       <c r="G86" s="7">
-        <v>853911000</v>
+        <v>732957000</v>
       </c>
       <c r="H86" s="7">
-        <v>52249</v>
+        <v>44611</v>
       </c>
       <c r="I86" s="7">
-        <v>2311361300</v>
+        <v>2143969100</v>
       </c>
       <c r="J86" s="7">
-        <v>141428</v>
+        <v>130491</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12.75">
@@ -5795,19 +5795,19 @@
         <v>14</v>
       </c>
       <c r="F87" s="7">
-        <v>5822</v>
+        <v>5752</v>
       </c>
       <c r="G87" s="7">
-        <v>292256000</v>
+        <v>217839000</v>
       </c>
       <c r="H87" s="7">
-        <v>50199</v>
+        <v>37872</v>
       </c>
       <c r="I87" s="7">
-        <v>3597520100</v>
+        <v>3250149400</v>
       </c>
       <c r="J87" s="7">
-        <v>617918</v>
+        <v>565047</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12.75">
@@ -5827,19 +5827,19 @@
         <v>14</v>
       </c>
       <c r="F88" s="7">
-        <v>16045</v>
+        <v>16211</v>
       </c>
       <c r="G88" s="7">
-        <v>579418000</v>
+        <v>523032000</v>
       </c>
       <c r="H88" s="7">
-        <v>36112</v>
+        <v>32264</v>
       </c>
       <c r="I88" s="7">
-        <v>1916129500</v>
+        <v>1773024900</v>
       </c>
       <c r="J88" s="7">
-        <v>119422</v>
+        <v>109372</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="12.75">
@@ -5859,19 +5859,19 @@
         <v>14</v>
       </c>
       <c r="F89" s="7">
-        <v>25240</v>
+        <v>25058</v>
       </c>
       <c r="G89" s="7">
-        <v>1649668000</v>
+        <v>1341245000</v>
       </c>
       <c r="H89" s="7">
-        <v>65359</v>
+        <v>53526</v>
       </c>
       <c r="I89" s="7">
-        <v>4412594900</v>
+        <v>4091504700</v>
       </c>
       <c r="J89" s="7">
-        <v>174825</v>
+        <v>163281</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12.75">
@@ -5891,19 +5891,19 @@
         <v>14</v>
       </c>
       <c r="F90" s="7">
-        <v>5266</v>
+        <v>5168</v>
       </c>
       <c r="G90" s="7">
-        <v>488693000</v>
+        <v>354791000</v>
       </c>
       <c r="H90" s="7">
-        <v>92802</v>
+        <v>68652</v>
       </c>
       <c r="I90" s="7">
-        <v>11072643200</v>
+        <v>10127877000</v>
       </c>
       <c r="J90" s="7">
-        <v>2102667</v>
+        <v>1959729</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12.75">
@@ -5923,19 +5923,19 @@
         <v>14</v>
       </c>
       <c r="F91" s="7">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G91" s="7">
-        <v>54717000</v>
+        <v>39762000</v>
       </c>
       <c r="H91" s="7">
-        <v>39823</v>
+        <v>28981</v>
       </c>
       <c r="I91" s="7">
-        <v>616396400</v>
+        <v>461457900</v>
       </c>
       <c r="J91" s="7">
-        <v>448615</v>
+        <v>336340</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="12.75">
@@ -5955,19 +5955,19 @@
         <v>14</v>
       </c>
       <c r="F92" s="7">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="G92" s="7">
-        <v>60012000</v>
+        <v>43553000</v>
       </c>
       <c r="H92" s="7">
-        <v>36000</v>
+        <v>26158</v>
       </c>
       <c r="I92" s="7">
-        <v>969923800</v>
+        <v>956478200</v>
       </c>
       <c r="J92" s="7">
-        <v>581838</v>
+        <v>574461</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="12.75">
@@ -5987,19 +5987,19 @@
         <v>14</v>
       </c>
       <c r="F93" s="7">
-        <v>3668</v>
+        <v>3675</v>
       </c>
       <c r="G93" s="7">
-        <v>465083000</v>
+        <v>258565000</v>
       </c>
       <c r="H93" s="7">
-        <v>126795</v>
+        <v>70358</v>
       </c>
       <c r="I93" s="7">
-        <v>1081249700</v>
+        <v>944642600</v>
       </c>
       <c r="J93" s="7">
-        <v>294779</v>
+        <v>257046</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
@@ -6019,19 +6019,19 @@
         <v>14</v>
       </c>
       <c r="F94" s="7">
-        <v>49350</v>
+        <v>49075</v>
       </c>
       <c r="G94" s="7">
-        <v>1260524000</v>
+        <v>1119184000</v>
       </c>
       <c r="H94" s="7">
-        <v>25543</v>
+        <v>22806</v>
       </c>
       <c r="I94" s="7">
-        <v>9500450600</v>
+        <v>7029819300</v>
       </c>
       <c r="J94" s="7">
-        <v>192512</v>
+        <v>143246</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="12.75">
@@ -6051,19 +6051,19 @@
         <v>14</v>
       </c>
       <c r="F95" s="7">
-        <v>15837</v>
+        <v>15924</v>
       </c>
       <c r="G95" s="7">
-        <v>662456000</v>
+        <v>519080000</v>
       </c>
       <c r="H95" s="7">
-        <v>41830</v>
+        <v>32597</v>
       </c>
       <c r="I95" s="7">
-        <v>2882044000</v>
+        <v>2482405500</v>
       </c>
       <c r="J95" s="7">
-        <v>181982</v>
+        <v>155891</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12.75">
@@ -6083,19 +6083,19 @@
         <v>14</v>
       </c>
       <c r="F96" s="7">
-        <v>93682</v>
+        <v>94000</v>
       </c>
       <c r="G96" s="7">
-        <v>2026895000</v>
+        <v>1754923000</v>
       </c>
       <c r="H96" s="7">
-        <v>21636</v>
+        <v>18669</v>
       </c>
       <c r="I96" s="7">
-        <v>7843860400</v>
+        <v>6253556700</v>
       </c>
       <c r="J96" s="7">
-        <v>83729</v>
+        <v>66527</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="12.75">
@@ -6115,19 +6115,19 @@
         <v>14</v>
       </c>
       <c r="F97" s="7">
-        <v>33104</v>
+        <v>32517</v>
       </c>
       <c r="G97" s="7">
-        <v>2053402000</v>
+        <v>1530740000</v>
       </c>
       <c r="H97" s="7">
-        <v>62029</v>
+        <v>47075</v>
       </c>
       <c r="I97" s="7">
-        <v>15449979300</v>
+        <v>13186717700</v>
       </c>
       <c r="J97" s="7">
-        <v>466710</v>
+        <v>405533</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="12.75">
@@ -6147,19 +6147,19 @@
         <v>14</v>
       </c>
       <c r="F98" s="7">
-        <v>41502</v>
+        <v>41946</v>
       </c>
       <c r="G98" s="7">
-        <v>1057088000</v>
+        <v>910150000</v>
       </c>
       <c r="H98" s="7">
-        <v>25471</v>
+        <v>21698</v>
       </c>
       <c r="I98" s="7">
-        <v>3678508500</v>
+        <v>3008407300</v>
       </c>
       <c r="J98" s="7">
-        <v>88634</v>
+        <v>71721</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12.75">
@@ -6179,19 +6179,19 @@
         <v>14</v>
       </c>
       <c r="F99" s="7">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="G99" s="7">
-        <v>16498000</v>
+        <v>14511000</v>
       </c>
       <c r="H99" s="7">
-        <v>24226</v>
+        <v>20909</v>
       </c>
       <c r="I99" s="7">
-        <v>185906300</v>
+        <v>182043400</v>
       </c>
       <c r="J99" s="7">
-        <v>272990</v>
+        <v>262310</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.75">
@@ -6211,19 +6211,19 @@
         <v>14</v>
       </c>
       <c r="F100" s="7">
-        <v>18488</v>
+        <v>18618</v>
       </c>
       <c r="G100" s="7">
-        <v>1381591000</v>
+        <v>993227000</v>
       </c>
       <c r="H100" s="7">
-        <v>74729</v>
+        <v>53348</v>
       </c>
       <c r="I100" s="7">
-        <v>3825226800</v>
+        <v>3632254300</v>
       </c>
       <c r="J100" s="7">
-        <v>206903</v>
+        <v>195094</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="12.75">
@@ -6243,19 +6243,19 @@
         <v>14</v>
       </c>
       <c r="F101" s="7">
-        <v>70963</v>
+        <v>72362</v>
       </c>
       <c r="G101" s="7">
-        <v>3380098000</v>
+        <v>2776859000</v>
       </c>
       <c r="H101" s="7">
-        <v>47632</v>
+        <v>38375</v>
       </c>
       <c r="I101" s="7">
-        <v>12640216800</v>
+        <v>11101738800</v>
       </c>
       <c r="J101" s="7">
-        <v>178124</v>
+        <v>153419</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12.75">
@@ -6275,19 +6275,19 @@
         <v>14</v>
       </c>
       <c r="F102" s="7">
-        <v>33656</v>
+        <v>33261</v>
       </c>
       <c r="G102" s="7">
-        <v>2160179000</v>
+        <v>1811756000</v>
       </c>
       <c r="H102" s="7">
-        <v>64184</v>
+        <v>54471</v>
       </c>
       <c r="I102" s="7">
-        <v>6739455100</v>
+        <v>6057291000</v>
       </c>
       <c r="J102" s="7">
-        <v>200245</v>
+        <v>182114</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75">
@@ -6307,19 +6307,19 @@
         <v>14</v>
       </c>
       <c r="F103" s="7">
-        <v>9236</v>
+        <v>9206</v>
       </c>
       <c r="G103" s="7">
-        <v>424218000</v>
+        <v>364015000</v>
       </c>
       <c r="H103" s="7">
-        <v>45931</v>
+        <v>39541</v>
       </c>
       <c r="I103" s="7">
-        <v>1813071700</v>
+        <v>1612258700</v>
       </c>
       <c r="J103" s="7">
-        <v>196305</v>
+        <v>175131</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12.75">
@@ -6339,19 +6339,19 @@
         <v>14</v>
       </c>
       <c r="F104" s="7">
-        <v>20902</v>
+        <v>21287</v>
       </c>
       <c r="G104" s="7">
-        <v>538929000</v>
+        <v>469806000</v>
       </c>
       <c r="H104" s="7">
-        <v>25784</v>
+        <v>22070</v>
       </c>
       <c r="I104" s="7">
-        <v>1722018500</v>
+        <v>1481985500</v>
       </c>
       <c r="J104" s="7">
-        <v>82385</v>
+        <v>69619</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12.75">
@@ -6371,19 +6371,19 @@
         <v>14</v>
       </c>
       <c r="F105" s="7">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G105" s="7">
-        <v>28945000</v>
+        <v>12927000</v>
       </c>
       <c r="H105" s="7">
-        <v>65191</v>
+        <v>29446</v>
       </c>
       <c r="I105" s="7">
-        <v>860784100</v>
+        <v>810687000</v>
       </c>
       <c r="J105" s="7">
-        <v>1938703</v>
+        <v>1846667</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="12.75">
@@ -6403,19 +6403,19 @@
         <v>14</v>
       </c>
       <c r="F106" s="7">
-        <v>8408</v>
+        <v>8470</v>
       </c>
       <c r="G106" s="7">
-        <v>522538000</v>
+        <v>448136000</v>
       </c>
       <c r="H106" s="7">
-        <v>62148</v>
+        <v>52909</v>
       </c>
       <c r="I106" s="7">
-        <v>1648088700</v>
+        <v>1425622900</v>
       </c>
       <c r="J106" s="7">
-        <v>196014</v>
+        <v>168314</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12.75">
@@ -6435,19 +6435,19 @@
         <v>14</v>
       </c>
       <c r="F107" s="7">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="G107" s="7">
-        <v>43933000</v>
+        <v>39605000</v>
       </c>
       <c r="H107" s="7">
-        <v>28162</v>
+        <v>25535</v>
       </c>
       <c r="I107" s="7">
-        <v>183855300</v>
+        <v>173933200</v>
       </c>
       <c r="J107" s="7">
-        <v>117856</v>
+        <v>112143</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12.75">
@@ -6467,19 +6467,19 @@
         <v>14</v>
       </c>
       <c r="F108" s="7">
-        <v>29836</v>
+        <v>29729</v>
       </c>
       <c r="G108" s="7">
-        <v>1755446000</v>
+        <v>1223353000</v>
       </c>
       <c r="H108" s="7">
-        <v>58837</v>
+        <v>41150</v>
       </c>
       <c r="I108" s="7">
-        <v>8654554400</v>
+        <v>7571872500</v>
       </c>
       <c r="J108" s="7">
-        <v>290071</v>
+        <v>254697</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12.75">
@@ -6499,19 +6499,19 @@
         <v>14</v>
       </c>
       <c r="F109" s="7">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="G109" s="7">
-        <v>17600000</v>
+        <v>15756000</v>
       </c>
       <c r="H109" s="7">
-        <v>18585</v>
+        <v>16413</v>
       </c>
       <c r="I109" s="7">
-        <v>175826700</v>
+        <v>173818900</v>
       </c>
       <c r="J109" s="7">
-        <v>185667</v>
+        <v>181061</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="12.75">
@@ -6531,19 +6531,19 @@
         <v>14</v>
       </c>
       <c r="F110" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G110" s="7">
-        <v>900000</v>
+        <v>879000</v>
       </c>
       <c r="H110" s="7">
-        <v>14063</v>
+        <v>12557</v>
       </c>
       <c r="I110" s="7">
-        <v>238470900</v>
+        <v>229578500</v>
       </c>
       <c r="J110" s="7">
-        <v>3726108</v>
+        <v>3279693</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75">
@@ -6563,19 +6563,19 @@
         <v>14</v>
       </c>
       <c r="F111" s="7">
-        <v>19815</v>
+        <v>19664</v>
       </c>
       <c r="G111" s="7">
-        <v>1239803000</v>
+        <v>1013829000</v>
       </c>
       <c r="H111" s="7">
-        <v>62569</v>
+        <v>51558</v>
       </c>
       <c r="I111" s="7">
-        <v>3144522000</v>
+        <v>2853771800</v>
       </c>
       <c r="J111" s="7">
-        <v>158694</v>
+        <v>145127</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="12.75">
@@ -6595,19 +6595,19 @@
         <v>14</v>
       </c>
       <c r="F112" s="7">
-        <v>6055</v>
+        <v>6110</v>
       </c>
       <c r="G112" s="7">
-        <v>249386000</v>
+        <v>219903000</v>
       </c>
       <c r="H112" s="7">
-        <v>41187</v>
+        <v>35991</v>
       </c>
       <c r="I112" s="7">
-        <v>766960200</v>
+        <v>698314800</v>
       </c>
       <c r="J112" s="7">
-        <v>126666</v>
+        <v>114290</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="12.75">
@@ -6627,19 +6627,19 @@
         <v>14</v>
       </c>
       <c r="F113" s="7">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="G113" s="7">
-        <v>64167000</v>
+        <v>55406000</v>
       </c>
       <c r="H113" s="7">
-        <v>41994</v>
+        <v>36025</v>
       </c>
       <c r="I113" s="7">
-        <v>236031700</v>
+        <v>210428400</v>
       </c>
       <c r="J113" s="7">
-        <v>154471</v>
+        <v>136820</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="12.75">
@@ -6659,19 +6659,19 @@
         <v>14</v>
       </c>
       <c r="F114" s="7">
-        <v>7214</v>
+        <v>7172</v>
       </c>
       <c r="G114" s="7">
-        <v>422825000</v>
+        <v>348192000</v>
       </c>
       <c r="H114" s="7">
-        <v>58612</v>
+        <v>48549</v>
       </c>
       <c r="I114" s="7">
-        <v>1741152600</v>
+        <v>1600428300</v>
       </c>
       <c r="J114" s="7">
-        <v>241357</v>
+        <v>223150</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="12.75">
@@ -6691,19 +6691,19 @@
         <v>14</v>
       </c>
       <c r="F115" s="7">
-        <v>17656</v>
+        <v>17768</v>
       </c>
       <c r="G115" s="7">
-        <v>479053000</v>
+        <v>418675000</v>
       </c>
       <c r="H115" s="7">
-        <v>27133</v>
+        <v>23563</v>
       </c>
       <c r="I115" s="7">
-        <v>1751876500</v>
+        <v>1635101600</v>
       </c>
       <c r="J115" s="7">
-        <v>99223</v>
+        <v>92025</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12.75">
@@ -6723,19 +6723,19 @@
         <v>14</v>
       </c>
       <c r="F116" s="7">
-        <v>11162</v>
+        <v>11315</v>
       </c>
       <c r="G116" s="7">
-        <v>977367000</v>
+        <v>780657000</v>
       </c>
       <c r="H116" s="7">
-        <v>87562</v>
+        <v>68993</v>
       </c>
       <c r="I116" s="7">
-        <v>2199159100</v>
+        <v>2033204400</v>
       </c>
       <c r="J116" s="7">
-        <v>197022</v>
+        <v>179691</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12.75">
@@ -6755,19 +6755,19 @@
         <v>14</v>
       </c>
       <c r="F117" s="7">
-        <v>6721</v>
+        <v>6752</v>
       </c>
       <c r="G117" s="7">
-        <v>348319000</v>
+        <v>294671000</v>
       </c>
       <c r="H117" s="7">
-        <v>51825</v>
+        <v>43642</v>
       </c>
       <c r="I117" s="7">
-        <v>1255397100</v>
+        <v>1116385500</v>
       </c>
       <c r="J117" s="7">
-        <v>186787</v>
+        <v>165341</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12.75">
@@ -6787,19 +6787,19 @@
         <v>14</v>
       </c>
       <c r="F118" s="7">
-        <v>5270</v>
+        <v>5325</v>
       </c>
       <c r="G118" s="7">
-        <v>223907000</v>
+        <v>189557000</v>
       </c>
       <c r="H118" s="7">
-        <v>42487</v>
+        <v>35598</v>
       </c>
       <c r="I118" s="7">
-        <v>1161298900</v>
+        <v>1106994300</v>
       </c>
       <c r="J118" s="7">
-        <v>220360</v>
+        <v>207886</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="12.75">
@@ -6819,19 +6819,19 @@
         <v>14</v>
       </c>
       <c r="F119" s="7">
-        <v>7698</v>
+        <v>7749</v>
       </c>
       <c r="G119" s="7">
-        <v>320953000</v>
+        <v>337544000</v>
       </c>
       <c r="H119" s="7">
-        <v>41693</v>
+        <v>43560</v>
       </c>
       <c r="I119" s="7">
-        <v>1210894200</v>
+        <v>1059770900</v>
       </c>
       <c r="J119" s="7">
-        <v>157300</v>
+        <v>136762</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="12.75">
@@ -6851,19 +6851,19 @@
         <v>14</v>
       </c>
       <c r="F120" s="7">
-        <v>7526</v>
+        <v>7561</v>
       </c>
       <c r="G120" s="7">
-        <v>808275000</v>
+        <v>602577000</v>
       </c>
       <c r="H120" s="7">
-        <v>107398</v>
+        <v>79695</v>
       </c>
       <c r="I120" s="7">
-        <v>1912849100</v>
+        <v>1756199200</v>
       </c>
       <c r="J120" s="7">
-        <v>254165</v>
+        <v>232271</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="12.75">
@@ -6883,19 +6883,19 @@
         <v>14</v>
       </c>
       <c r="F121" s="7">
-        <v>4915</v>
+        <v>4966</v>
       </c>
       <c r="G121" s="7">
-        <v>261909000</v>
+        <v>229631000</v>
       </c>
       <c r="H121" s="7">
-        <v>53288</v>
+        <v>46241</v>
       </c>
       <c r="I121" s="7">
-        <v>758719700</v>
+        <v>662234900</v>
       </c>
       <c r="J121" s="7">
-        <v>154368</v>
+        <v>133354</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="12.75">
@@ -6915,19 +6915,19 @@
         <v>14</v>
       </c>
       <c r="F122" s="7">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="G122" s="7">
-        <v>15945000</v>
+        <v>11350000</v>
       </c>
       <c r="H122" s="7">
-        <v>21374</v>
+        <v>14993</v>
       </c>
       <c r="I122" s="7">
-        <v>338870100</v>
+        <v>322918000</v>
       </c>
       <c r="J122" s="7">
-        <v>454249</v>
+        <v>426576</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="12.75">
@@ -6947,19 +6947,19 @@
         <v>14</v>
       </c>
       <c r="F123" s="7">
-        <v>14758</v>
+        <v>14833</v>
       </c>
       <c r="G123" s="7">
-        <v>1092560000</v>
+        <v>850059000</v>
       </c>
       <c r="H123" s="7">
-        <v>74032</v>
+        <v>57309</v>
       </c>
       <c r="I123" s="7">
-        <v>3333802700</v>
+        <v>3073778500</v>
       </c>
       <c r="J123" s="7">
-        <v>225898</v>
+        <v>207226</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="12.75">
@@ -6979,19 +6979,19 @@
         <v>14</v>
       </c>
       <c r="F124" s="7">
-        <v>10587</v>
+        <v>10639</v>
       </c>
       <c r="G124" s="7">
-        <v>495883000</v>
+        <v>422602000</v>
       </c>
       <c r="H124" s="7">
-        <v>46839</v>
+        <v>39722</v>
       </c>
       <c r="I124" s="7">
-        <v>1705096200</v>
+        <v>1526710200</v>
       </c>
       <c r="J124" s="7">
-        <v>161056</v>
+        <v>143501</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="12.75">
@@ -7011,19 +7011,19 @@
         <v>14</v>
       </c>
       <c r="F125" s="7">
-        <v>2658</v>
+        <v>2667</v>
       </c>
       <c r="G125" s="7">
-        <v>76213000</v>
+        <v>66384000</v>
       </c>
       <c r="H125" s="7">
-        <v>28673</v>
+        <v>24891</v>
       </c>
       <c r="I125" s="7">
-        <v>290003700</v>
+        <v>270761600</v>
       </c>
       <c r="J125" s="7">
-        <v>109106</v>
+        <v>101523</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="12.75">
@@ -7043,19 +7043,19 @@
         <v>14</v>
       </c>
       <c r="F126" s="7">
-        <v>6870</v>
+        <v>6851</v>
       </c>
       <c r="G126" s="7">
-        <v>589660000</v>
+        <v>483840000</v>
       </c>
       <c r="H126" s="7">
-        <v>85831</v>
+        <v>70623</v>
       </c>
       <c r="I126" s="7">
-        <v>1434003000</v>
+        <v>1320082000</v>
       </c>
       <c r="J126" s="7">
-        <v>208734</v>
+        <v>192685</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="12.75">
@@ -7075,19 +7075,19 @@
         <v>14</v>
       </c>
       <c r="F127" s="7">
-        <v>13647</v>
+        <v>13440</v>
       </c>
       <c r="G127" s="7">
-        <v>740161000</v>
+        <v>560400000</v>
       </c>
       <c r="H127" s="7">
-        <v>54236</v>
+        <v>41696</v>
       </c>
       <c r="I127" s="7">
-        <v>7143004400</v>
+        <v>6396397000</v>
       </c>
       <c r="J127" s="7">
-        <v>523412</v>
+        <v>475922</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12.75">
@@ -7107,19 +7107,19 @@
         <v>14</v>
       </c>
       <c r="F128" s="7">
-        <v>3314</v>
+        <v>3352</v>
       </c>
       <c r="G128" s="7">
-        <v>145276000</v>
+        <v>133900000</v>
       </c>
       <c r="H128" s="7">
-        <v>43837</v>
+        <v>39946</v>
       </c>
       <c r="I128" s="7">
-        <v>664037600</v>
+        <v>610123900</v>
       </c>
       <c r="J128" s="7">
-        <v>200373</v>
+        <v>182018</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="12.75">
@@ -7139,19 +7139,19 @@
         <v>14</v>
       </c>
       <c r="F129" s="7">
-        <v>67153</v>
+        <v>67787</v>
       </c>
       <c r="G129" s="7">
-        <v>2349091000</v>
+        <v>2048798000</v>
       </c>
       <c r="H129" s="7">
-        <v>34981</v>
+        <v>30224</v>
       </c>
       <c r="I129" s="7">
-        <v>8774764300</v>
+        <v>7590825800</v>
       </c>
       <c r="J129" s="7">
-        <v>130668</v>
+        <v>111981</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75">
@@ -7171,19 +7171,19 @@
         <v>14</v>
       </c>
       <c r="F130" s="7">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G130" s="7">
-        <v>9120000</v>
+        <v>7067000</v>
       </c>
       <c r="H130" s="7">
-        <v>25763</v>
+        <v>20020</v>
       </c>
       <c r="I130" s="7">
-        <v>52571500</v>
+        <v>51879800</v>
       </c>
       <c r="J130" s="7">
-        <v>148507</v>
+        <v>146968</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12.75">
@@ -7203,19 +7203,19 @@
         <v>14</v>
       </c>
       <c r="F131" s="7">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G131" s="7">
-        <v>13330000</v>
+        <v>9390000</v>
       </c>
       <c r="H131" s="7">
-        <v>18488</v>
+        <v>12988</v>
       </c>
       <c r="I131" s="7">
-        <v>105196700</v>
+        <v>96423600</v>
       </c>
       <c r="J131" s="7">
-        <v>145904</v>
+        <v>133366</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="12.75">
@@ -7235,19 +7235,19 @@
         <v>14</v>
       </c>
       <c r="F132" s="7">
-        <v>24130</v>
+        <v>24284</v>
       </c>
       <c r="G132" s="7">
-        <v>4528742000</v>
+        <v>3107735000</v>
       </c>
       <c r="H132" s="7">
-        <v>187681</v>
+        <v>127975</v>
       </c>
       <c r="I132" s="7">
-        <v>8672525700</v>
+        <v>7942260800</v>
       </c>
       <c r="J132" s="7">
-        <v>359408</v>
+        <v>327057</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.75">
@@ -7267,19 +7267,19 @@
         <v>14</v>
       </c>
       <c r="F133" s="7">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="G133" s="7">
-        <v>87188000</v>
+        <v>73337000</v>
       </c>
       <c r="H133" s="7">
-        <v>45888</v>
+        <v>38216</v>
       </c>
       <c r="I133" s="7">
-        <v>363382200</v>
+        <v>323523800</v>
       </c>
       <c r="J133" s="7">
-        <v>191254</v>
+        <v>168590</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="12.75">
@@ -7299,19 +7299,19 @@
         <v>14</v>
       </c>
       <c r="F134" s="7">
-        <v>11285</v>
+        <v>11405</v>
       </c>
       <c r="G134" s="7">
-        <v>421763000</v>
+        <v>372777000</v>
       </c>
       <c r="H134" s="7">
-        <v>37374</v>
+        <v>32685</v>
       </c>
       <c r="I134" s="7">
-        <v>1670268000</v>
+        <v>1455967400</v>
       </c>
       <c r="J134" s="7">
-        <v>148008</v>
+        <v>127660</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="12.75">
@@ -7331,19 +7331,19 @@
         <v>14</v>
       </c>
       <c r="F135" s="7">
-        <v>19880</v>
+        <v>19905</v>
       </c>
       <c r="G135" s="7">
-        <v>1123903000</v>
+        <v>913423000</v>
       </c>
       <c r="H135" s="7">
-        <v>56534</v>
+        <v>45889</v>
       </c>
       <c r="I135" s="7">
-        <v>2958213400</v>
+        <v>2669892800</v>
       </c>
       <c r="J135" s="7">
-        <v>148803</v>
+        <v>134132</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="12.75">
@@ -7363,19 +7363,19 @@
         <v>14</v>
       </c>
       <c r="F136" s="7">
-        <v>2573</v>
+        <v>2603</v>
       </c>
       <c r="G136" s="7">
-        <v>95625000</v>
+        <v>89724000</v>
       </c>
       <c r="H136" s="7">
-        <v>37165</v>
+        <v>34469</v>
       </c>
       <c r="I136" s="7">
-        <v>412648100</v>
+        <v>368404300</v>
       </c>
       <c r="J136" s="7">
-        <v>160376</v>
+        <v>141531</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="12.75">
@@ -7395,19 +7395,19 @@
         <v>14</v>
       </c>
       <c r="F137" s="7">
-        <v>14856</v>
+        <v>14996</v>
       </c>
       <c r="G137" s="7">
-        <v>1190746000</v>
+        <v>1295623000</v>
       </c>
       <c r="H137" s="7">
-        <v>80153</v>
+        <v>86398</v>
       </c>
       <c r="I137" s="7">
-        <v>3243894200</v>
+        <v>2882048100</v>
       </c>
       <c r="J137" s="7">
-        <v>218356</v>
+        <v>192188</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="12.75">
@@ -7427,19 +7427,19 @@
         <v>14</v>
       </c>
       <c r="F138" s="7">
-        <v>37720</v>
+        <v>38238</v>
       </c>
       <c r="G138" s="7">
-        <v>843705000</v>
+        <v>754071000</v>
       </c>
       <c r="H138" s="7">
-        <v>22368</v>
+        <v>19720</v>
       </c>
       <c r="I138" s="7">
-        <v>2572663000</v>
+        <v>2379718800</v>
       </c>
       <c r="J138" s="7">
-        <v>68204</v>
+        <v>62234</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="12.75">
@@ -7459,19 +7459,19 @@
         <v>14</v>
       </c>
       <c r="F139" s="7">
-        <v>6008</v>
+        <v>6017</v>
       </c>
       <c r="G139" s="7">
-        <v>295074000</v>
+        <v>280469000</v>
       </c>
       <c r="H139" s="7">
-        <v>49114</v>
+        <v>46613</v>
       </c>
       <c r="I139" s="7">
-        <v>929315000</v>
+        <v>867520800</v>
       </c>
       <c r="J139" s="7">
-        <v>154680</v>
+        <v>144178</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="12.75">
@@ -7491,19 +7491,19 @@
         <v>14</v>
       </c>
       <c r="F140" s="7">
-        <v>19249</v>
+        <v>18758</v>
       </c>
       <c r="G140" s="7">
-        <v>2217371000</v>
+        <v>1631987000</v>
       </c>
       <c r="H140" s="7">
-        <v>115194</v>
+        <v>87002</v>
       </c>
       <c r="I140" s="7">
-        <v>5173582300</v>
+        <v>4454778900</v>
       </c>
       <c r="J140" s="7">
-        <v>268771</v>
+        <v>237487</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="12.75">
@@ -7523,19 +7523,19 @@
         <v>14</v>
       </c>
       <c r="F141" s="7">
-        <v>4335</v>
+        <v>4328</v>
       </c>
       <c r="G141" s="7">
-        <v>194653000</v>
+        <v>167723000</v>
       </c>
       <c r="H141" s="7">
-        <v>44903</v>
+        <v>38753</v>
       </c>
       <c r="I141" s="7">
-        <v>587783900</v>
+        <v>527028100</v>
       </c>
       <c r="J141" s="7">
-        <v>135590</v>
+        <v>121772</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="12.75">
@@ -7555,19 +7555,19 @@
         <v>14</v>
       </c>
       <c r="F142" s="7">
-        <v>19744</v>
+        <v>20092</v>
       </c>
       <c r="G142" s="7">
-        <v>984288000</v>
+        <v>833465000</v>
       </c>
       <c r="H142" s="7">
-        <v>49853</v>
+        <v>41482</v>
       </c>
       <c r="I142" s="7">
-        <v>3508853900</v>
+        <v>3166995200</v>
       </c>
       <c r="J142" s="7">
-        <v>177717</v>
+        <v>157625</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="12.75">
@@ -7587,19 +7587,19 @@
         <v>14</v>
       </c>
       <c r="F143" s="7">
-        <v>10142</v>
+        <v>10072</v>
       </c>
       <c r="G143" s="7">
-        <v>604391000</v>
+        <v>494319000</v>
       </c>
       <c r="H143" s="7">
-        <v>59593</v>
+        <v>49079</v>
       </c>
       <c r="I143" s="7">
-        <v>2851555900</v>
+        <v>2567554800</v>
       </c>
       <c r="J143" s="7">
-        <v>281163</v>
+        <v>254920</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="12.75">
@@ -7619,19 +7619,19 @@
         <v>14</v>
       </c>
       <c r="F144" s="7">
-        <v>2069</v>
+        <v>2094</v>
       </c>
       <c r="G144" s="7">
-        <v>75187000</v>
+        <v>68901000</v>
       </c>
       <c r="H144" s="7">
-        <v>36340</v>
+        <v>32904</v>
       </c>
       <c r="I144" s="7">
-        <v>255469400</v>
+        <v>203312000</v>
       </c>
       <c r="J144" s="7">
-        <v>123475</v>
+        <v>97093</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.75">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="F145" s="7">
-        <v>13848</v>
+        <v>13785</v>
       </c>
       <c r="G145" s="7">
-        <v>1121767000</v>
+        <v>949198000</v>
       </c>
       <c r="H145" s="7">
-        <v>81006</v>
+        <v>68857</v>
       </c>
       <c r="I145" s="7">
-        <v>3651224100</v>
+        <v>3246602500</v>
       </c>
       <c r="J145" s="7">
-        <v>263664</v>
+        <v>235517</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="12.75">
@@ -7683,19 +7683,19 @@
         <v>14</v>
       </c>
       <c r="F146" s="7">
-        <v>13829</v>
+        <v>13708</v>
       </c>
       <c r="G146" s="7">
-        <v>721415000</v>
+        <v>612825000</v>
       </c>
       <c r="H146" s="7">
-        <v>52167</v>
+        <v>44706</v>
       </c>
       <c r="I146" s="7">
-        <v>2686343300</v>
+        <v>2303085100</v>
       </c>
       <c r="J146" s="7">
-        <v>194254</v>
+        <v>168010</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="12.75">
@@ -7715,19 +7715,19 @@
         <v>14</v>
       </c>
       <c r="F147" s="7">
-        <v>11895</v>
+        <v>11523</v>
       </c>
       <c r="G147" s="7">
-        <v>627678000</v>
+        <v>506180000</v>
       </c>
       <c r="H147" s="7">
-        <v>52768</v>
+        <v>43928</v>
       </c>
       <c r="I147" s="7">
-        <v>2334757300</v>
+        <v>2033953800</v>
       </c>
       <c r="J147" s="7">
-        <v>196281</v>
+        <v>176513</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="12.75">
@@ -7747,19 +7747,19 @@
         <v>14</v>
       </c>
       <c r="F148" s="7">
-        <v>8394</v>
+        <v>8441</v>
       </c>
       <c r="G148" s="7">
-        <v>395641000</v>
+        <v>323775000</v>
       </c>
       <c r="H148" s="7">
-        <v>47134</v>
+        <v>38357</v>
       </c>
       <c r="I148" s="7">
-        <v>1181869900</v>
+        <v>1088038600</v>
       </c>
       <c r="J148" s="7">
-        <v>140799</v>
+        <v>128899</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="12.75">
@@ -7779,19 +7779,19 @@
         <v>14</v>
       </c>
       <c r="F149" s="7">
-        <v>3016</v>
+        <v>3038</v>
       </c>
       <c r="G149" s="7">
-        <v>115070000</v>
+        <v>89385000</v>
       </c>
       <c r="H149" s="7">
-        <v>38153</v>
+        <v>29422</v>
       </c>
       <c r="I149" s="7">
-        <v>475467900</v>
+        <v>426435400</v>
       </c>
       <c r="J149" s="7">
-        <v>157649</v>
+        <v>140367</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="12.75">
@@ -7811,19 +7811,19 @@
         <v>14</v>
       </c>
       <c r="F150" s="7">
-        <v>87954</v>
+        <v>89143</v>
       </c>
       <c r="G150" s="7">
-        <v>1839598000</v>
+        <v>1535412000</v>
       </c>
       <c r="H150" s="7">
-        <v>20915</v>
+        <v>17224</v>
       </c>
       <c r="I150" s="7">
-        <v>6494397200</v>
+        <v>5310863600</v>
       </c>
       <c r="J150" s="7">
-        <v>73839</v>
+        <v>59577</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="12.75">
@@ -7843,19 +7843,19 @@
         <v>14</v>
       </c>
       <c r="F151" s="7">
-        <v>5707</v>
+        <v>5788</v>
       </c>
       <c r="G151" s="7">
-        <v>225800000</v>
+        <v>192660000</v>
       </c>
       <c r="H151" s="7">
-        <v>39565</v>
+        <v>33286</v>
       </c>
       <c r="I151" s="7">
-        <v>1176406900</v>
+        <v>1039758100</v>
       </c>
       <c r="J151" s="7">
-        <v>206134</v>
+        <v>179640</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="12.75">
@@ -7875,19 +7875,19 @@
         <v>14</v>
       </c>
       <c r="F152" s="7">
-        <v>11033</v>
+        <v>11087</v>
       </c>
       <c r="G152" s="7">
-        <v>426901000</v>
+        <v>367953000</v>
       </c>
       <c r="H152" s="7">
-        <v>38693</v>
+        <v>33188</v>
       </c>
       <c r="I152" s="7">
-        <v>1309322100</v>
+        <v>1145368600</v>
       </c>
       <c r="J152" s="7">
-        <v>118673</v>
+        <v>103307</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="12.75">
@@ -7907,19 +7907,19 @@
         <v>14</v>
       </c>
       <c r="F153" s="7">
-        <v>5064</v>
+        <v>5095</v>
       </c>
       <c r="G153" s="7">
-        <v>361190000</v>
+        <v>285824000</v>
       </c>
       <c r="H153" s="7">
-        <v>71325</v>
+        <v>56099</v>
       </c>
       <c r="I153" s="7">
-        <v>1497427400</v>
+        <v>1351518200</v>
       </c>
       <c r="J153" s="7">
-        <v>295701</v>
+        <v>265264</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="12.75">
@@ -7939,19 +7939,19 @@
         <v>14</v>
       </c>
       <c r="F154" s="7">
-        <v>43646</v>
+        <v>43782</v>
       </c>
       <c r="G154" s="7">
-        <v>1514293000</v>
+        <v>1313291000</v>
       </c>
       <c r="H154" s="7">
-        <v>34695</v>
+        <v>29996</v>
       </c>
       <c r="I154" s="7">
-        <v>5149133300</v>
+        <v>4405389500</v>
       </c>
       <c r="J154" s="7">
-        <v>117975</v>
+        <v>100621</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="12.75">
@@ -7971,19 +7971,19 @@
         <v>14</v>
       </c>
       <c r="F155" s="7">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="G155" s="7">
-        <v>93938000</v>
+        <v>83155000</v>
       </c>
       <c r="H155" s="7">
-        <v>50504</v>
+        <v>44587</v>
       </c>
       <c r="I155" s="7">
-        <v>338579700</v>
+        <v>291826100</v>
       </c>
       <c r="J155" s="7">
-        <v>182032</v>
+        <v>156475</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="12.75">
@@ -8003,19 +8003,19 @@
         <v>14</v>
       </c>
       <c r="F156" s="7">
-        <v>34074</v>
+        <v>34454</v>
       </c>
       <c r="G156" s="7">
-        <v>5936265000</v>
+        <v>4526816000</v>
       </c>
       <c r="H156" s="7">
-        <v>174217</v>
+        <v>131387</v>
       </c>
       <c r="I156" s="7">
-        <v>15034185600</v>
+        <v>13471181900</v>
       </c>
       <c r="J156" s="7">
-        <v>441222</v>
+        <v>390990</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="12.75">
@@ -8038,16 +8038,16 @@
         <v>734</v>
       </c>
       <c r="G157" s="7">
-        <v>37072000</v>
+        <v>22145000</v>
       </c>
       <c r="H157" s="7">
-        <v>50507</v>
+        <v>30170</v>
       </c>
       <c r="I157" s="7">
-        <v>104479300</v>
+        <v>95052200</v>
       </c>
       <c r="J157" s="7">
-        <v>142342</v>
+        <v>129499</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="12.75">
@@ -8067,19 +8067,19 @@
         <v>14</v>
       </c>
       <c r="F158" s="7">
-        <v>6855</v>
+        <v>7014</v>
       </c>
       <c r="G158" s="7">
-        <v>1428344000</v>
+        <v>1095611000</v>
       </c>
       <c r="H158" s="7">
-        <v>208365</v>
+        <v>156203</v>
       </c>
       <c r="I158" s="7">
-        <v>2475327700</v>
+        <v>2323751900</v>
       </c>
       <c r="J158" s="7">
-        <v>361098</v>
+        <v>331302</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="12.75">
@@ -8099,19 +8099,19 @@
         <v>14</v>
       </c>
       <c r="F159" s="7">
-        <v>10139</v>
+        <v>10141</v>
       </c>
       <c r="G159" s="7">
-        <v>763859000</v>
+        <v>593447000</v>
       </c>
       <c r="H159" s="7">
-        <v>75339</v>
+        <v>58520</v>
       </c>
       <c r="I159" s="7">
-        <v>2447845900</v>
+        <v>2226110600</v>
       </c>
       <c r="J159" s="7">
-        <v>241429</v>
+        <v>219516</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.75">
@@ -8131,19 +8131,19 @@
         <v>14</v>
       </c>
       <c r="F160" s="7">
-        <v>15632</v>
+        <v>15853</v>
       </c>
       <c r="G160" s="7">
-        <v>1796501000</v>
+        <v>1233310000</v>
       </c>
       <c r="H160" s="7">
-        <v>114925</v>
+        <v>77797</v>
       </c>
       <c r="I160" s="7">
-        <v>2458304800</v>
+        <v>2309114600</v>
       </c>
       <c r="J160" s="7">
-        <v>157261</v>
+        <v>145658</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="12.75">
@@ -8163,19 +8163,19 @@
         <v>14</v>
       </c>
       <c r="F161" s="7">
-        <v>113608</v>
+        <v>115554</v>
       </c>
       <c r="G161" s="7">
-        <v>3043181000</v>
+        <v>2668420000</v>
       </c>
       <c r="H161" s="7">
-        <v>26787</v>
+        <v>23092</v>
       </c>
       <c r="I161" s="7">
-        <v>11375052400</v>
+        <v>9848176600</v>
       </c>
       <c r="J161" s="7">
-        <v>100125</v>
+        <v>85226</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="12.75">
@@ -8195,19 +8195,19 @@
         <v>14</v>
       </c>
       <c r="F162" s="7">
-        <v>20871</v>
+        <v>21002</v>
       </c>
       <c r="G162" s="7">
-        <v>749441000</v>
+        <v>640417000</v>
       </c>
       <c r="H162" s="7">
-        <v>35908</v>
+        <v>30493</v>
       </c>
       <c r="I162" s="7">
-        <v>2411393900</v>
+        <v>2262713800</v>
       </c>
       <c r="J162" s="7">
-        <v>115538</v>
+        <v>107738</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="12.75">
@@ -8227,19 +8227,19 @@
         <v>14</v>
       </c>
       <c r="F163" s="7">
-        <v>11835</v>
+        <v>11782</v>
       </c>
       <c r="G163" s="7">
-        <v>576297000</v>
+        <v>480516000</v>
       </c>
       <c r="H163" s="7">
-        <v>48694</v>
+        <v>40784</v>
       </c>
       <c r="I163" s="7">
-        <v>1855455700</v>
+        <v>1672175900</v>
       </c>
       <c r="J163" s="7">
-        <v>156777</v>
+        <v>141926</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="12.75">
@@ -8259,19 +8259,19 @@
         <v>14</v>
       </c>
       <c r="F164" s="7">
-        <v>100891</v>
+        <v>101253</v>
       </c>
       <c r="G164" s="7">
-        <v>2554529000</v>
+        <v>2257096000</v>
       </c>
       <c r="H164" s="7">
-        <v>25320</v>
+        <v>22292</v>
       </c>
       <c r="I164" s="7">
-        <v>11636407900</v>
+        <v>9814969600</v>
       </c>
       <c r="J164" s="7">
-        <v>115336</v>
+        <v>96935</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="12.75">
@@ -8291,19 +8291,19 @@
         <v>14</v>
       </c>
       <c r="F165" s="7">
-        <v>12951</v>
+        <v>13000</v>
       </c>
       <c r="G165" s="7">
-        <v>1396516000</v>
+        <v>1147737000</v>
       </c>
       <c r="H165" s="7">
-        <v>107831</v>
+        <v>88287</v>
       </c>
       <c r="I165" s="7">
-        <v>4134919200</v>
+        <v>3508636700</v>
       </c>
       <c r="J165" s="7">
-        <v>319274</v>
+        <v>269895</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="12.75">
@@ -8323,19 +8323,19 @@
         <v>14</v>
       </c>
       <c r="F166" s="7">
-        <v>64712</v>
+        <v>66263</v>
       </c>
       <c r="G166" s="7">
-        <v>2221793000</v>
+        <v>1941308000</v>
       </c>
       <c r="H166" s="7">
-        <v>34334</v>
+        <v>29297</v>
       </c>
       <c r="I166" s="7">
-        <v>9978319100</v>
+        <v>9209316800</v>
       </c>
       <c r="J166" s="7">
-        <v>154196</v>
+        <v>138981</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="12.75">
@@ -8355,19 +8355,19 @@
         <v>14</v>
       </c>
       <c r="F167" s="7">
-        <v>5354</v>
+        <v>5395</v>
       </c>
       <c r="G167" s="7">
-        <v>1288357000</v>
+        <v>969723000</v>
       </c>
       <c r="H167" s="7">
-        <v>240634</v>
+        <v>179745</v>
       </c>
       <c r="I167" s="7">
-        <v>2969651000</v>
+        <v>2662108600</v>
       </c>
       <c r="J167" s="7">
-        <v>554660</v>
+        <v>493440</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="12.75">
@@ -8387,19 +8387,19 @@
         <v>14</v>
       </c>
       <c r="F168" s="7">
-        <v>23816</v>
+        <v>23860</v>
       </c>
       <c r="G168" s="7">
-        <v>1463900000</v>
+        <v>1286584000</v>
       </c>
       <c r="H168" s="7">
-        <v>61467</v>
+        <v>53922</v>
       </c>
       <c r="I168" s="7">
-        <v>4776050100</v>
+        <v>4294632400</v>
       </c>
       <c r="J168" s="7">
-        <v>200540</v>
+        <v>179993</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="12.75">
@@ -8419,19 +8419,19 @@
         <v>14</v>
       </c>
       <c r="F169" s="7">
-        <v>20233</v>
+        <v>20441</v>
       </c>
       <c r="G169" s="7">
-        <v>2642633000</v>
+        <v>1923335000</v>
       </c>
       <c r="H169" s="7">
-        <v>130610</v>
+        <v>94092</v>
       </c>
       <c r="I169" s="7">
-        <v>7507193000</v>
+        <v>6959309400</v>
       </c>
       <c r="J169" s="7">
-        <v>371037</v>
+        <v>340458</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="12.75">
@@ -8451,19 +8451,19 @@
         <v>14</v>
       </c>
       <c r="F170" s="7">
-        <v>5291</v>
+        <v>5347</v>
       </c>
       <c r="G170" s="7">
-        <v>478101000</v>
+        <v>346147000</v>
       </c>
       <c r="H170" s="7">
-        <v>90361</v>
+        <v>64737</v>
       </c>
       <c r="I170" s="7">
-        <v>2022826200</v>
+        <v>1895160500</v>
       </c>
       <c r="J170" s="7">
-        <v>382315</v>
+        <v>354434</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="12.75">
@@ -8483,19 +8483,19 @@
         <v>14</v>
       </c>
       <c r="F171" s="7">
-        <v>40971</v>
+        <v>41793</v>
       </c>
       <c r="G171" s="7">
-        <v>1750639000</v>
+        <v>1524693000</v>
       </c>
       <c r="H171" s="7">
-        <v>42729</v>
+        <v>36482</v>
       </c>
       <c r="I171" s="7">
-        <v>7495113200</v>
+        <v>6865547800</v>
       </c>
       <c r="J171" s="7">
-        <v>182937</v>
+        <v>164275</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="12.75">
@@ -8515,19 +8515,19 @@
         <v>14</v>
       </c>
       <c r="F172" s="7">
-        <v>25713</v>
+        <v>25825</v>
       </c>
       <c r="G172" s="7">
-        <v>1724877000</v>
+        <v>1398900000</v>
       </c>
       <c r="H172" s="7">
-        <v>67082</v>
+        <v>54168</v>
       </c>
       <c r="I172" s="7">
-        <v>6249685700</v>
+        <v>5504694400</v>
       </c>
       <c r="J172" s="7">
-        <v>243055</v>
+        <v>213154</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="12.75">
@@ -8547,19 +8547,19 @@
         <v>14</v>
       </c>
       <c r="F173" s="7">
-        <v>15468</v>
+        <v>15060</v>
       </c>
       <c r="G173" s="7">
-        <v>885765000</v>
+        <v>626791000</v>
       </c>
       <c r="H173" s="7">
-        <v>57264</v>
+        <v>41620</v>
       </c>
       <c r="I173" s="7">
-        <v>6829860600</v>
+        <v>5990551100</v>
       </c>
       <c r="J173" s="7">
-        <v>441548</v>
+        <v>397779</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="12.75">
@@ -8579,19 +8579,19 @@
         <v>14</v>
       </c>
       <c r="F174" s="7">
-        <v>6589</v>
+        <v>6508</v>
       </c>
       <c r="G174" s="7">
-        <v>498159000</v>
+        <v>376081000</v>
       </c>
       <c r="H174" s="7">
-        <v>75605</v>
+        <v>57787</v>
       </c>
       <c r="I174" s="7">
-        <v>2214714000</v>
+        <v>1900482600</v>
       </c>
       <c r="J174" s="7">
-        <v>336123</v>
+        <v>292023</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="12.75">
@@ -8611,19 +8611,19 @@
         <v>14</v>
       </c>
       <c r="F175" s="7">
-        <v>10546</v>
+        <v>10746</v>
       </c>
       <c r="G175" s="7">
-        <v>542797000</v>
+        <v>460513000</v>
       </c>
       <c r="H175" s="7">
-        <v>51469</v>
+        <v>42854</v>
       </c>
       <c r="I175" s="7">
-        <v>1839094900</v>
+        <v>1620005500</v>
       </c>
       <c r="J175" s="7">
-        <v>174388</v>
+        <v>150754</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="12.75">
@@ -8643,19 +8643,19 @@
         <v>14</v>
       </c>
       <c r="F176" s="7">
-        <v>13072</v>
+        <v>12799</v>
       </c>
       <c r="G176" s="7">
-        <v>1782813000</v>
+        <v>1274776000</v>
       </c>
       <c r="H176" s="7">
-        <v>136384</v>
+        <v>99600</v>
       </c>
       <c r="I176" s="7">
-        <v>3244189600</v>
+        <v>2985655000</v>
       </c>
       <c r="J176" s="7">
-        <v>248179</v>
+        <v>233273</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="12.75">
@@ -8675,19 +8675,19 @@
         <v>14</v>
       </c>
       <c r="F177" s="7">
-        <v>65399</v>
+        <v>59659</v>
       </c>
       <c r="G177" s="7">
-        <v>3110142000</v>
+        <v>2576488000</v>
       </c>
       <c r="H177" s="7">
-        <v>47556</v>
+        <v>43187</v>
       </c>
       <c r="I177" s="7">
-        <v>13888346300</v>
+        <v>12501964700</v>
       </c>
       <c r="J177" s="7">
-        <v>212363</v>
+        <v>209557</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="12.75">
@@ -8707,19 +8707,19 @@
         <v>14</v>
       </c>
       <c r="F178" s="7">
-        <v>13393</v>
+        <v>13115</v>
       </c>
       <c r="G178" s="7">
-        <v>871574000</v>
+        <v>736877000</v>
       </c>
       <c r="H178" s="7">
-        <v>65077</v>
+        <v>56186</v>
       </c>
       <c r="I178" s="7">
-        <v>2799149700</v>
+        <v>2494179400</v>
       </c>
       <c r="J178" s="7">
-        <v>209001</v>
+        <v>190178</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="12.75">
@@ -8739,19 +8739,19 @@
         <v>14</v>
       </c>
       <c r="F179" s="7">
-        <v>29155</v>
+        <v>29817</v>
       </c>
       <c r="G179" s="7">
-        <v>1959672000</v>
+        <v>1608282000</v>
       </c>
       <c r="H179" s="7">
-        <v>67216</v>
+        <v>53938</v>
       </c>
       <c r="I179" s="7">
-        <v>6830692800</v>
+        <v>6208754700</v>
       </c>
       <c r="J179" s="7">
-        <v>234289</v>
+        <v>208229</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="12.75">
@@ -8771,19 +8771,19 @@
         <v>14</v>
       </c>
       <c r="F180" s="7">
-        <v>6286</v>
+        <v>6228</v>
       </c>
       <c r="G180" s="7">
-        <v>486906000</v>
+        <v>367439000</v>
       </c>
       <c r="H180" s="7">
-        <v>77459</v>
+        <v>58998</v>
       </c>
       <c r="I180" s="7">
-        <v>1231055600</v>
+        <v>1082278300</v>
       </c>
       <c r="J180" s="7">
-        <v>195841</v>
+        <v>173776</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="12.75">
@@ -8803,19 +8803,19 @@
         <v>14</v>
       </c>
       <c r="F181" s="7">
-        <v>6699</v>
+        <v>6723</v>
       </c>
       <c r="G181" s="7">
-        <v>319781000</v>
+        <v>364789000</v>
       </c>
       <c r="H181" s="7">
-        <v>47736</v>
+        <v>54260</v>
       </c>
       <c r="I181" s="7">
-        <v>1063280200</v>
+        <v>966545100</v>
       </c>
       <c r="J181" s="7">
-        <v>158722</v>
+        <v>143767</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="12.75">
@@ -8835,19 +8835,19 @@
         <v>14</v>
       </c>
       <c r="F182" s="7">
-        <v>53241</v>
+        <v>53059</v>
       </c>
       <c r="G182" s="7">
-        <v>1973140000</v>
+        <v>1699916000</v>
       </c>
       <c r="H182" s="7">
-        <v>37061</v>
+        <v>32038</v>
       </c>
       <c r="I182" s="7">
-        <v>7484419600</v>
+        <v>6534741900</v>
       </c>
       <c r="J182" s="7">
-        <v>140576</v>
+        <v>123160</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="12.75">
@@ -8867,19 +8867,19 @@
         <v>14</v>
       </c>
       <c r="F183" s="7">
-        <v>24376</v>
+        <v>24245</v>
       </c>
       <c r="G183" s="7">
-        <v>915651000</v>
+        <v>805712000</v>
       </c>
       <c r="H183" s="7">
-        <v>37564</v>
+        <v>33232</v>
       </c>
       <c r="I183" s="7">
-        <v>3517109700</v>
+        <v>3078877100</v>
       </c>
       <c r="J183" s="7">
-        <v>144286</v>
+        <v>126990</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="12.75">
@@ -8899,19 +8899,19 @@
         <v>14</v>
       </c>
       <c r="F184" s="7">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G184" s="7">
-        <v>23691000</v>
+        <v>10159000</v>
       </c>
       <c r="H184" s="7">
-        <v>61059</v>
+        <v>26387</v>
       </c>
       <c r="I184" s="7">
-        <v>74262900</v>
+        <v>73050200</v>
       </c>
       <c r="J184" s="7">
-        <v>191399</v>
+        <v>189741</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="12.75">
@@ -8931,19 +8931,19 @@
         <v>14</v>
       </c>
       <c r="F185" s="7">
-        <v>9837</v>
+        <v>9779</v>
       </c>
       <c r="G185" s="7">
-        <v>767563000</v>
+        <v>581197000</v>
       </c>
       <c r="H185" s="7">
-        <v>78028</v>
+        <v>59433</v>
       </c>
       <c r="I185" s="7">
-        <v>2600183100</v>
+        <v>2366454600</v>
       </c>
       <c r="J185" s="7">
-        <v>264327</v>
+        <v>241994</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="12.75">
@@ -8963,19 +8963,19 @@
         <v>14</v>
       </c>
       <c r="F186" s="7">
-        <v>30196</v>
+        <v>30379</v>
       </c>
       <c r="G186" s="7">
-        <v>1203549000</v>
+        <v>1034640000</v>
       </c>
       <c r="H186" s="7">
-        <v>39858</v>
+        <v>34058</v>
       </c>
       <c r="I186" s="7">
-        <v>4423092300</v>
+        <v>3913410800</v>
       </c>
       <c r="J186" s="7">
-        <v>146479</v>
+        <v>128820</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="12.75">
@@ -8995,19 +8995,19 @@
         <v>14</v>
       </c>
       <c r="F187" s="7">
-        <v>13936</v>
+        <v>13831</v>
       </c>
       <c r="G187" s="7">
-        <v>588539000</v>
+        <v>515196000</v>
       </c>
       <c r="H187" s="7">
-        <v>42232</v>
+        <v>37249</v>
       </c>
       <c r="I187" s="7">
-        <v>2138952900</v>
+        <v>1940073800</v>
       </c>
       <c r="J187" s="7">
-        <v>153484</v>
+        <v>140270</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="12.75">
@@ -9027,19 +9027,19 @@
         <v>14</v>
       </c>
       <c r="F188" s="7">
-        <v>8836</v>
+        <v>8460</v>
       </c>
       <c r="G188" s="7">
-        <v>529663000</v>
+        <v>400704000</v>
       </c>
       <c r="H188" s="7">
-        <v>59944</v>
+        <v>47365</v>
       </c>
       <c r="I188" s="7">
-        <v>1670717600</v>
+        <v>1417727000</v>
       </c>
       <c r="J188" s="7">
-        <v>189081</v>
+        <v>167580</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="12.75">
@@ -9059,19 +9059,19 @@
         <v>14</v>
       </c>
       <c r="F189" s="7">
-        <v>3147</v>
+        <v>3174</v>
       </c>
       <c r="G189" s="7">
-        <v>121102000</v>
+        <v>107806000</v>
       </c>
       <c r="H189" s="7">
-        <v>38482</v>
+        <v>33965</v>
       </c>
       <c r="I189" s="7">
-        <v>387116000</v>
+        <v>337150600</v>
       </c>
       <c r="J189" s="7">
-        <v>123011</v>
+        <v>106223</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="12.75">
@@ -9091,19 +9091,19 @@
         <v>14</v>
       </c>
       <c r="F190" s="7">
-        <v>28364</v>
+        <v>28630</v>
       </c>
       <c r="G190" s="7">
-        <v>2853979000</v>
+        <v>2228818000</v>
       </c>
       <c r="H190" s="7">
-        <v>100620</v>
+        <v>77849</v>
       </c>
       <c r="I190" s="7">
-        <v>7603573400</v>
+        <v>6817342900</v>
       </c>
       <c r="J190" s="7">
-        <v>268071</v>
+        <v>238119</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="12.75">
@@ -9123,19 +9123,19 @@
         <v>14</v>
       </c>
       <c r="F191" s="7">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G191" s="7">
-        <v>1142000</v>
+        <v>982000</v>
       </c>
       <c r="H191" s="7">
-        <v>9930</v>
+        <v>8322</v>
       </c>
       <c r="I191" s="7">
-        <v>31522700</v>
+        <v>28214600</v>
       </c>
       <c r="J191" s="7">
-        <v>274110</v>
+        <v>239107</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="12.75">
@@ -9155,19 +9155,19 @@
         <v>14</v>
       </c>
       <c r="F192" s="7">
-        <v>8090</v>
+        <v>8150</v>
       </c>
       <c r="G192" s="7">
-        <v>303232000</v>
+        <v>276677000</v>
       </c>
       <c r="H192" s="7">
-        <v>37482</v>
+        <v>33948</v>
       </c>
       <c r="I192" s="7">
-        <v>925835900</v>
+        <v>853970900</v>
       </c>
       <c r="J192" s="7">
-        <v>114442</v>
+        <v>104782</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="12.75">
@@ -9187,19 +9187,19 @@
         <v>14</v>
       </c>
       <c r="F193" s="7">
-        <v>8463</v>
+        <v>8580</v>
       </c>
       <c r="G193" s="7">
-        <v>235734000</v>
+        <v>205571000</v>
       </c>
       <c r="H193" s="7">
-        <v>27855</v>
+        <v>23959</v>
       </c>
       <c r="I193" s="7">
-        <v>1034121100</v>
+        <v>953787100</v>
       </c>
       <c r="J193" s="7">
-        <v>122193</v>
+        <v>111164</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="12.75">
@@ -9219,19 +9219,19 @@
         <v>14</v>
       </c>
       <c r="F194" s="7">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="G194" s="7">
-        <v>53717000</v>
+        <v>29613000</v>
       </c>
       <c r="H194" s="7">
-        <v>49509</v>
+        <v>27044</v>
       </c>
       <c r="I194" s="7">
-        <v>554257700</v>
+        <v>540379700</v>
       </c>
       <c r="J194" s="7">
-        <v>510837</v>
+        <v>493497</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="12.75">
@@ -9251,19 +9251,19 @@
         <v>14</v>
       </c>
       <c r="F195" s="7">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G195" s="7">
-        <v>32542000</v>
+        <v>29728000</v>
       </c>
       <c r="H195" s="7">
-        <v>39782</v>
+        <v>36298</v>
       </c>
       <c r="I195" s="7">
-        <v>130260900</v>
+        <v>113997900</v>
       </c>
       <c r="J195" s="7">
-        <v>159243</v>
+        <v>139192</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="12.75">
@@ -9283,19 +9283,19 @@
         <v>14</v>
       </c>
       <c r="F196" s="7">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G196" s="7">
-        <v>11686000</v>
+        <v>3221000</v>
       </c>
       <c r="H196" s="7">
-        <v>74433</v>
+        <v>20131</v>
       </c>
       <c r="I196" s="7">
-        <v>98571900</v>
+        <v>100069300</v>
       </c>
       <c r="J196" s="7">
-        <v>627846</v>
+        <v>625433</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="12.75">
@@ -9315,19 +9315,19 @@
         <v>14</v>
       </c>
       <c r="F197" s="7">
-        <v>3289</v>
+        <v>3334</v>
       </c>
       <c r="G197" s="7">
-        <v>280072000</v>
+        <v>231730000</v>
       </c>
       <c r="H197" s="7">
-        <v>85154</v>
+        <v>69505</v>
       </c>
       <c r="I197" s="7">
-        <v>1183644400</v>
+        <v>1034428700</v>
       </c>
       <c r="J197" s="7">
-        <v>359880</v>
+        <v>310267</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="12.75">
@@ -9347,19 +9347,19 @@
         <v>14</v>
       </c>
       <c r="F198" s="7">
-        <v>14421</v>
+        <v>14255</v>
       </c>
       <c r="G198" s="7">
-        <v>1507292000</v>
+        <v>843478000</v>
       </c>
       <c r="H198" s="7">
-        <v>104521</v>
+        <v>59171</v>
       </c>
       <c r="I198" s="7">
-        <v>26748129600</v>
+        <v>26096711600</v>
       </c>
       <c r="J198" s="7">
-        <v>1854804</v>
+        <v>1830706</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="12.75">
@@ -9379,19 +9379,19 @@
         <v>14</v>
       </c>
       <c r="F199" s="7">
-        <v>36272</v>
+        <v>37006</v>
       </c>
       <c r="G199" s="7">
-        <v>2912473000</v>
+        <v>2330827000</v>
       </c>
       <c r="H199" s="7">
-        <v>80295</v>
+        <v>62985</v>
       </c>
       <c r="I199" s="7">
-        <v>10516104300</v>
+        <v>9500063400</v>
       </c>
       <c r="J199" s="7">
-        <v>289923</v>
+        <v>256717</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="12.75">
@@ -9411,19 +9411,19 @@
         <v>14</v>
       </c>
       <c r="F200" s="7">
-        <v>32114</v>
+        <v>32091</v>
       </c>
       <c r="G200" s="7">
-        <v>5455217000</v>
+        <v>3823782000</v>
       </c>
       <c r="H200" s="7">
-        <v>169870</v>
+        <v>119154</v>
       </c>
       <c r="I200" s="7">
-        <v>12307796200</v>
+        <v>11580160100</v>
       </c>
       <c r="J200" s="7">
-        <v>383253</v>
+        <v>360854</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="12.75">
@@ -9443,19 +9443,19 @@
         <v>14</v>
       </c>
       <c r="F201" s="7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G201" s="7">
-        <v>8667000</v>
+        <v>6924000</v>
       </c>
       <c r="H201" s="7">
-        <v>34807</v>
+        <v>27696</v>
       </c>
       <c r="I201" s="7">
-        <v>42627400</v>
+        <v>40130500</v>
       </c>
       <c r="J201" s="7">
-        <v>171194</v>
+        <v>160522</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="12.75">
@@ -9475,19 +9475,19 @@
         <v>14</v>
       </c>
       <c r="F202" s="7">
-        <v>100682</v>
+        <v>101079</v>
       </c>
       <c r="G202" s="7">
-        <v>2177490000</v>
+        <v>1906151000</v>
       </c>
       <c r="H202" s="7">
-        <v>21627</v>
+        <v>18858</v>
       </c>
       <c r="I202" s="7">
-        <v>8074839600</v>
+        <v>6947603100</v>
       </c>
       <c r="J202" s="7">
-        <v>80201</v>
+        <v>68734</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="12.75">
@@ -9507,19 +9507,19 @@
         <v>14</v>
       </c>
       <c r="F203" s="7">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G203" s="7">
-        <v>46044000</v>
+        <v>39367000</v>
       </c>
       <c r="H203" s="7">
-        <v>46509</v>
+        <v>39525</v>
       </c>
       <c r="I203" s="7">
-        <v>134349700</v>
+        <v>125454700</v>
       </c>
       <c r="J203" s="7">
-        <v>135707</v>
+        <v>125959</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="12.75">
@@ -9539,19 +9539,19 @@
         <v>14</v>
       </c>
       <c r="F204" s="7">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="G204" s="7">
-        <v>64968000</v>
+        <v>54346000</v>
       </c>
       <c r="H204" s="7">
-        <v>43025</v>
+        <v>35567</v>
       </c>
       <c r="I204" s="7">
-        <v>606394600</v>
+        <v>568276600</v>
       </c>
       <c r="J204" s="7">
-        <v>401586</v>
+        <v>371909</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="12.75">
@@ -9571,19 +9571,19 @@
         <v>14</v>
       </c>
       <c r="F205" s="7">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="G205" s="7">
-        <v>30469000</v>
+        <v>27111000</v>
       </c>
       <c r="H205" s="7">
-        <v>30227</v>
+        <v>27580</v>
       </c>
       <c r="I205" s="7">
-        <v>134880400</v>
+        <v>123679700</v>
       </c>
       <c r="J205" s="7">
-        <v>133810</v>
+        <v>125819</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="12.75">
@@ -9603,19 +9603,19 @@
         <v>14</v>
       </c>
       <c r="F206" s="7">
-        <v>6695</v>
+        <v>6716</v>
       </c>
       <c r="G206" s="7">
-        <v>852808000</v>
+        <v>469123000</v>
       </c>
       <c r="H206" s="7">
-        <v>127380</v>
+        <v>69852</v>
       </c>
       <c r="I206" s="7">
-        <v>2013812100</v>
+        <v>1736208200</v>
       </c>
       <c r="J206" s="7">
-        <v>300793</v>
+        <v>258518</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12.75">
@@ -9635,19 +9635,19 @@
         <v>14</v>
       </c>
       <c r="F207" s="7">
-        <v>18662</v>
+        <v>18289</v>
       </c>
       <c r="G207" s="7">
-        <v>1630726000</v>
+        <v>1206685000</v>
       </c>
       <c r="H207" s="7">
-        <v>87382</v>
+        <v>65979</v>
       </c>
       <c r="I207" s="7">
-        <v>5656251800</v>
+        <v>4963974700</v>
       </c>
       <c r="J207" s="7">
-        <v>303089</v>
+        <v>271419</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="12.75">
@@ -9667,19 +9667,19 @@
         <v>14</v>
       </c>
       <c r="F208" s="7">
-        <v>87381</v>
+        <v>88923</v>
       </c>
       <c r="G208" s="7">
-        <v>20914273000</v>
+        <v>13018314000</v>
       </c>
       <c r="H208" s="7">
-        <v>239346</v>
+        <v>146400</v>
       </c>
       <c r="I208" s="7">
-        <v>36300210300</v>
+        <v>34257156100</v>
       </c>
       <c r="J208" s="7">
-        <v>415425</v>
+        <v>385245</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="12.75">
@@ -9699,19 +9699,19 @@
         <v>14</v>
       </c>
       <c r="F209" s="7">
-        <v>11552</v>
+        <v>11662</v>
       </c>
       <c r="G209" s="7">
-        <v>856429000</v>
+        <v>720423000</v>
       </c>
       <c r="H209" s="7">
-        <v>74137</v>
+        <v>61775</v>
       </c>
       <c r="I209" s="7">
-        <v>2184884400</v>
+        <v>1981383700</v>
       </c>
       <c r="J209" s="7">
-        <v>189135</v>
+        <v>169901</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="12.75">
@@ -9731,19 +9731,19 @@
         <v>14</v>
       </c>
       <c r="F210" s="7">
-        <v>12777</v>
+        <v>12961</v>
       </c>
       <c r="G210" s="7">
-        <v>255310000</v>
+        <v>229834000</v>
       </c>
       <c r="H210" s="7">
-        <v>19982</v>
+        <v>17733</v>
       </c>
       <c r="I210" s="7">
-        <v>884487200</v>
+        <v>801676900</v>
       </c>
       <c r="J210" s="7">
-        <v>69225</v>
+        <v>61853</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="12.75">
@@ -9763,19 +9763,19 @@
         <v>14</v>
       </c>
       <c r="F211" s="7">
-        <v>31295</v>
+        <v>30915</v>
       </c>
       <c r="G211" s="7">
-        <v>2541360000</v>
+        <v>1928312000</v>
       </c>
       <c r="H211" s="7">
-        <v>81207</v>
+        <v>62375</v>
       </c>
       <c r="I211" s="7">
-        <v>6388823400</v>
+        <v>5762245600</v>
       </c>
       <c r="J211" s="7">
-        <v>204148</v>
+        <v>186390</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="12.75">
@@ -9795,19 +9795,19 @@
         <v>14</v>
       </c>
       <c r="F212" s="7">
-        <v>30930</v>
+        <v>30834</v>
       </c>
       <c r="G212" s="7">
-        <v>1705460000</v>
+        <v>1269352000</v>
       </c>
       <c r="H212" s="7">
-        <v>55139</v>
+        <v>41167</v>
       </c>
       <c r="I212" s="7">
-        <v>4784669200</v>
+        <v>4386403100</v>
       </c>
       <c r="J212" s="7">
-        <v>154693</v>
+        <v>142259</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="12.75">
@@ -9827,19 +9827,19 @@
         <v>14</v>
       </c>
       <c r="F213" s="7">
-        <v>4728</v>
+        <v>4735</v>
       </c>
       <c r="G213" s="7">
-        <v>162744000</v>
+        <v>143138000</v>
       </c>
       <c r="H213" s="7">
-        <v>34421</v>
+        <v>30230</v>
       </c>
       <c r="I213" s="7">
-        <v>548749600</v>
+        <v>473064600</v>
       </c>
       <c r="J213" s="7">
-        <v>116064</v>
+        <v>99908</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="12.75">
@@ -9859,19 +9859,19 @@
         <v>14</v>
       </c>
       <c r="F214" s="7">
-        <v>15549</v>
+        <v>15554</v>
       </c>
       <c r="G214" s="7">
-        <v>1326145000</v>
+        <v>1067199000</v>
       </c>
       <c r="H214" s="7">
-        <v>85288</v>
+        <v>68613</v>
       </c>
       <c r="I214" s="7">
-        <v>4047916800</v>
+        <v>3607668800</v>
       </c>
       <c r="J214" s="7">
-        <v>260333</v>
+        <v>231945</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="12.75">
@@ -9891,19 +9891,19 @@
         <v>14</v>
       </c>
       <c r="F215" s="7">
-        <v>29327</v>
+        <v>29571</v>
       </c>
       <c r="G215" s="7">
-        <v>1345315000</v>
+        <v>1103442000</v>
       </c>
       <c r="H215" s="7">
-        <v>45873</v>
+        <v>37315</v>
       </c>
       <c r="I215" s="7">
-        <v>4233284000</v>
+        <v>3915520200</v>
       </c>
       <c r="J215" s="7">
-        <v>144348</v>
+        <v>132411</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="12.75">
@@ -9923,19 +9923,19 @@
         <v>14</v>
       </c>
       <c r="F216" s="7">
-        <v>15663</v>
+        <v>15741</v>
       </c>
       <c r="G216" s="7">
-        <v>1196132000</v>
+        <v>1015458000</v>
       </c>
       <c r="H216" s="7">
-        <v>76367</v>
+        <v>64510</v>
       </c>
       <c r="I216" s="7">
-        <v>3635129100</v>
+        <v>3297006900</v>
       </c>
       <c r="J216" s="7">
-        <v>232084</v>
+        <v>209453</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="12.75">
@@ -9955,19 +9955,19 @@
         <v>14</v>
       </c>
       <c r="F217" s="7">
-        <v>16337</v>
+        <v>16335</v>
       </c>
       <c r="G217" s="7">
-        <v>735000000</v>
+        <v>601731000</v>
       </c>
       <c r="H217" s="7">
-        <v>44990</v>
+        <v>36837</v>
       </c>
       <c r="I217" s="7">
-        <v>2148275600</v>
+        <v>1894649500</v>
       </c>
       <c r="J217" s="7">
-        <v>131498</v>
+        <v>115987</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="12.75">
@@ -9987,19 +9987,19 @@
         <v>14</v>
       </c>
       <c r="F218" s="7">
-        <v>2872</v>
+        <v>2866</v>
       </c>
       <c r="G218" s="7">
-        <v>109660000</v>
+        <v>94102000</v>
       </c>
       <c r="H218" s="7">
-        <v>38182</v>
+        <v>32834</v>
       </c>
       <c r="I218" s="7">
-        <v>612926000</v>
+        <v>517658400</v>
       </c>
       <c r="J218" s="7">
-        <v>213414</v>
+        <v>180621</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="12.75">
@@ -10019,19 +10019,19 @@
         <v>14</v>
       </c>
       <c r="F219" s="7">
-        <v>19108</v>
+        <v>19202</v>
       </c>
       <c r="G219" s="7">
-        <v>905209000</v>
+        <v>774598000</v>
       </c>
       <c r="H219" s="7">
-        <v>47373</v>
+        <v>40339</v>
       </c>
       <c r="I219" s="7">
-        <v>3164775400</v>
+        <v>2900634100</v>
       </c>
       <c r="J219" s="7">
-        <v>165626</v>
+        <v>151059</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="12.75">
@@ -10051,19 +10051,19 @@
         <v>14</v>
       </c>
       <c r="F220" s="7">
-        <v>11280</v>
+        <v>11351</v>
       </c>
       <c r="G220" s="7">
-        <v>1492736000</v>
+        <v>1151717000</v>
       </c>
       <c r="H220" s="7">
-        <v>132335</v>
+        <v>101464</v>
       </c>
       <c r="I220" s="7">
-        <v>3200575000</v>
+        <v>2967834000</v>
       </c>
       <c r="J220" s="7">
-        <v>283739</v>
+        <v>261460</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="12.75">
@@ -10083,19 +10083,19 @@
         <v>14</v>
       </c>
       <c r="F221" s="7">
-        <v>31317</v>
+        <v>31611</v>
       </c>
       <c r="G221" s="7">
-        <v>1654999000</v>
+        <v>1387243000</v>
       </c>
       <c r="H221" s="7">
-        <v>52847</v>
+        <v>43885</v>
       </c>
       <c r="I221" s="7">
-        <v>7062039200</v>
+        <v>6194416300</v>
       </c>
       <c r="J221" s="7">
-        <v>225502</v>
+        <v>195958</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="12.75">
@@ -10115,19 +10115,19 @@
         <v>14</v>
       </c>
       <c r="F222" s="7">
-        <v>5379</v>
+        <v>5341</v>
       </c>
       <c r="G222" s="7">
-        <v>188532000</v>
+        <v>139117000</v>
       </c>
       <c r="H222" s="7">
-        <v>35050</v>
+        <v>26047</v>
       </c>
       <c r="I222" s="7">
-        <v>4343520600</v>
+        <v>3630614100</v>
       </c>
       <c r="J222" s="7">
-        <v>807496</v>
+        <v>679763</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="12.75">
@@ -10147,19 +10147,19 @@
         <v>14</v>
       </c>
       <c r="F223" s="7">
-        <v>1866</v>
+        <v>1851</v>
       </c>
       <c r="G223" s="7">
-        <v>77317000</v>
+        <v>68800000</v>
       </c>
       <c r="H223" s="7">
-        <v>41435</v>
+        <v>37169</v>
       </c>
       <c r="I223" s="7">
-        <v>269560200</v>
+        <v>239239000</v>
       </c>
       <c r="J223" s="7">
-        <v>144459</v>
+        <v>129249</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="12.75">
@@ -10179,19 +10179,19 @@
         <v>14</v>
       </c>
       <c r="F224" s="7">
-        <v>7558</v>
+        <v>7569</v>
       </c>
       <c r="G224" s="7">
-        <v>181835000</v>
+        <v>162498000</v>
       </c>
       <c r="H224" s="7">
-        <v>24059</v>
+        <v>21469</v>
       </c>
       <c r="I224" s="7">
-        <v>704170400</v>
+        <v>620932600</v>
       </c>
       <c r="J224" s="7">
-        <v>93169</v>
+        <v>82036</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="12.75">
@@ -10211,19 +10211,19 @@
         <v>14</v>
       </c>
       <c r="F225" s="7">
-        <v>6422</v>
+        <v>6307</v>
       </c>
       <c r="G225" s="7">
-        <v>480766000</v>
+        <v>349747000</v>
       </c>
       <c r="H225" s="7">
-        <v>74862</v>
+        <v>55454</v>
       </c>
       <c r="I225" s="7">
-        <v>4865120300</v>
+        <v>4515570600</v>
       </c>
       <c r="J225" s="7">
-        <v>757571</v>
+        <v>715962</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="12.75">
@@ -10243,19 +10243,19 @@
         <v>14</v>
       </c>
       <c r="F226" s="7">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="G226" s="7">
-        <v>81743000</v>
+        <v>57559000</v>
       </c>
       <c r="H226" s="7">
-        <v>50272</v>
+        <v>35226</v>
       </c>
       <c r="I226" s="7">
-        <v>755586300</v>
+        <v>659119700</v>
       </c>
       <c r="J226" s="7">
-        <v>464690</v>
+        <v>403378</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="12.75">
@@ -10275,19 +10275,19 @@
         <v>14</v>
       </c>
       <c r="F227" s="7">
-        <v>13287</v>
+        <v>13347</v>
       </c>
       <c r="G227" s="7">
-        <v>493678000</v>
+        <v>447676000</v>
       </c>
       <c r="H227" s="7">
-        <v>37155</v>
+        <v>33541</v>
       </c>
       <c r="I227" s="7">
-        <v>1732020300</v>
+        <v>1570978000</v>
       </c>
       <c r="J227" s="7">
-        <v>130355</v>
+        <v>117703</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="12.75">
@@ -10307,19 +10307,19 @@
         <v>14</v>
       </c>
       <c r="F228" s="7">
-        <v>12337</v>
+        <v>12448</v>
       </c>
       <c r="G228" s="7">
-        <v>367359000</v>
+        <v>332383000</v>
       </c>
       <c r="H228" s="7">
-        <v>29777</v>
+        <v>26702</v>
       </c>
       <c r="I228" s="7">
-        <v>1131204500</v>
+        <v>1017230700</v>
       </c>
       <c r="J228" s="7">
-        <v>91692</v>
+        <v>81718</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="12.75">
@@ -10339,19 +10339,19 @@
         <v>14</v>
       </c>
       <c r="F229" s="7">
-        <v>5024</v>
+        <v>5004</v>
       </c>
       <c r="G229" s="7">
-        <v>239601000</v>
+        <v>199985000</v>
       </c>
       <c r="H229" s="7">
-        <v>47691</v>
+        <v>39965</v>
       </c>
       <c r="I229" s="7">
-        <v>657742900</v>
+        <v>607020400</v>
       </c>
       <c r="J229" s="7">
-        <v>130920</v>
+        <v>121307</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="12.75">
@@ -10371,19 +10371,19 @@
         <v>14</v>
       </c>
       <c r="F230" s="7">
-        <v>53896</v>
+        <v>54481</v>
       </c>
       <c r="G230" s="7">
-        <v>2173171000</v>
+        <v>1940206000</v>
       </c>
       <c r="H230" s="7">
-        <v>40322</v>
+        <v>35613</v>
       </c>
       <c r="I230" s="7">
-        <v>9902814600</v>
+        <v>9078660600</v>
       </c>
       <c r="J230" s="7">
-        <v>183739</v>
+        <v>166639</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="12.75">
@@ -10403,19 +10403,19 @@
         <v>14</v>
       </c>
       <c r="F231" s="7">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="G231" s="7">
-        <v>69821000</v>
+        <v>54164000</v>
       </c>
       <c r="H231" s="7">
-        <v>55151</v>
+        <v>42316</v>
       </c>
       <c r="I231" s="7">
-        <v>202643200</v>
+        <v>189643300</v>
       </c>
       <c r="J231" s="7">
-        <v>160066</v>
+        <v>148159</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="12.75">
@@ -10435,19 +10435,19 @@
         <v>14</v>
       </c>
       <c r="F232" s="7">
-        <v>18297</v>
+        <v>18361</v>
       </c>
       <c r="G232" s="7">
-        <v>957432000</v>
+        <v>839640000</v>
       </c>
       <c r="H232" s="7">
-        <v>52327</v>
+        <v>45730</v>
       </c>
       <c r="I232" s="7">
-        <v>3412515200</v>
+        <v>3116738700</v>
       </c>
       <c r="J232" s="7">
-        <v>186507</v>
+        <v>169748</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="12.75">
@@ -10467,19 +10467,19 @@
         <v>14</v>
       </c>
       <c r="F233" s="7">
-        <v>11620</v>
+        <v>11604</v>
       </c>
       <c r="G233" s="7">
-        <v>574168000</v>
+        <v>477249000</v>
       </c>
       <c r="H233" s="7">
-        <v>49412</v>
+        <v>41128</v>
       </c>
       <c r="I233" s="7">
-        <v>1671752500</v>
+        <v>1488119500</v>
       </c>
       <c r="J233" s="7">
-        <v>143869</v>
+        <v>128242</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="12.75">
@@ -10499,19 +10499,19 @@
         <v>14</v>
       </c>
       <c r="F234" s="7">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="G234" s="7">
-        <v>21151000</v>
+        <v>19443000</v>
       </c>
       <c r="H234" s="7">
-        <v>26340</v>
+        <v>23886</v>
       </c>
       <c r="I234" s="7">
-        <v>114245700</v>
+        <v>100581000</v>
       </c>
       <c r="J234" s="7">
-        <v>142274</v>
+        <v>123564</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="12.75">
@@ -10531,19 +10531,19 @@
         <v>14</v>
       </c>
       <c r="F235" s="7">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="G235" s="7">
-        <v>55544000</v>
+        <v>42894000</v>
       </c>
       <c r="H235" s="7">
-        <v>46952</v>
+        <v>35925</v>
       </c>
       <c r="I235" s="7">
-        <v>190689500</v>
+        <v>168293700</v>
       </c>
       <c r="J235" s="7">
-        <v>161191</v>
+        <v>140949</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="12.75">
@@ -10563,19 +10563,19 @@
         <v>14</v>
       </c>
       <c r="F236" s="7">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="G236" s="7">
-        <v>63687000</v>
+        <v>54346000</v>
       </c>
       <c r="H236" s="7">
-        <v>37027</v>
+        <v>31487</v>
       </c>
       <c r="I236" s="7">
-        <v>265707500</v>
+        <v>225116800</v>
       </c>
       <c r="J236" s="7">
-        <v>154481</v>
+        <v>130427</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="12.75">
@@ -10595,19 +10595,19 @@
         <v>14</v>
       </c>
       <c r="F237" s="7">
-        <v>43310</v>
+        <v>43927</v>
       </c>
       <c r="G237" s="7">
-        <v>1364118000</v>
+        <v>1216141000</v>
       </c>
       <c r="H237" s="7">
-        <v>31497</v>
+        <v>27686</v>
       </c>
       <c r="I237" s="7">
-        <v>4240409000</v>
+        <v>3828682400</v>
       </c>
       <c r="J237" s="7">
-        <v>97908</v>
+        <v>87160</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="12.75">
@@ -10627,19 +10627,19 @@
         <v>14</v>
       </c>
       <c r="F238" s="7">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G238" s="7">
-        <v>20269000</v>
+        <v>18143000</v>
       </c>
       <c r="H238" s="7">
-        <v>32224</v>
+        <v>28662</v>
       </c>
       <c r="I238" s="7">
-        <v>120158000</v>
+        <v>98187300</v>
       </c>
       <c r="J238" s="7">
-        <v>191030</v>
+        <v>155114</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="12.75">
@@ -10659,19 +10659,19 @@
         <v>14</v>
       </c>
       <c r="F239" s="7">
-        <v>9865</v>
+        <v>9945</v>
       </c>
       <c r="G239" s="7">
-        <v>498055000</v>
+        <v>440083000</v>
       </c>
       <c r="H239" s="7">
-        <v>50487</v>
+        <v>44252</v>
       </c>
       <c r="I239" s="7">
-        <v>1865402800</v>
+        <v>1692502300</v>
       </c>
       <c r="J239" s="7">
-        <v>189093</v>
+        <v>170186</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="12.75">
@@ -10691,19 +10691,19 @@
         <v>14</v>
       </c>
       <c r="F240" s="7">
-        <v>64269</v>
+        <v>61217</v>
       </c>
       <c r="G240" s="7">
-        <v>3121175000</v>
+        <v>2531178000</v>
       </c>
       <c r="H240" s="7">
-        <v>48564</v>
+        <v>41348</v>
       </c>
       <c r="I240" s="7">
-        <v>13647134600</v>
+        <v>12163150000</v>
       </c>
       <c r="J240" s="7">
-        <v>212344</v>
+        <v>198689</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="12.75">
@@ -10723,19 +10723,19 @@
         <v>14</v>
       </c>
       <c r="F241" s="7">
-        <v>2923</v>
+        <v>2930</v>
       </c>
       <c r="G241" s="7">
-        <v>154653000</v>
+        <v>124936000</v>
       </c>
       <c r="H241" s="7">
-        <v>52909</v>
+        <v>42640</v>
       </c>
       <c r="I241" s="7">
-        <v>654578500</v>
+        <v>591177800</v>
       </c>
       <c r="J241" s="7">
-        <v>223941</v>
+        <v>201767</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="12.75">
@@ -10755,19 +10755,19 @@
         <v>14</v>
       </c>
       <c r="F242" s="7">
-        <v>3504</v>
+        <v>3495</v>
       </c>
       <c r="G242" s="7">
-        <v>254259000</v>
+        <v>211798000</v>
       </c>
       <c r="H242" s="7">
-        <v>72563</v>
+        <v>60600</v>
       </c>
       <c r="I242" s="7">
-        <v>639721900</v>
+        <v>591085900</v>
       </c>
       <c r="J242" s="7">
-        <v>182569</v>
+        <v>169123</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="12.75">
@@ -10787,19 +10787,19 @@
         <v>14</v>
       </c>
       <c r="F243" s="7">
-        <v>3723</v>
+        <v>3664</v>
       </c>
       <c r="G243" s="7">
-        <v>386943000</v>
+        <v>218901000</v>
       </c>
       <c r="H243" s="7">
-        <v>103933</v>
+        <v>59744</v>
       </c>
       <c r="I243" s="7">
-        <v>4042523100</v>
+        <v>3620873900</v>
       </c>
       <c r="J243" s="7">
-        <v>1085824</v>
+        <v>988230</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="12.75">
@@ -10819,19 +10819,19 @@
         <v>14</v>
       </c>
       <c r="F244" s="7">
-        <v>101727</v>
+        <v>101636</v>
       </c>
       <c r="G244" s="7">
-        <v>4374250000</v>
+        <v>3736448000</v>
       </c>
       <c r="H244" s="7">
-        <v>43000</v>
+        <v>36763</v>
       </c>
       <c r="I244" s="7">
-        <v>20526193400</v>
+        <v>18377975900</v>
       </c>
       <c r="J244" s="7">
-        <v>201777</v>
+        <v>180822</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="12.75">
@@ -10851,19 +10851,19 @@
         <v>14</v>
       </c>
       <c r="F245" s="7">
-        <v>34530</v>
+        <v>34984</v>
       </c>
       <c r="G245" s="7">
-        <v>1160321000</v>
+        <v>1037114000</v>
       </c>
       <c r="H245" s="7">
-        <v>33603</v>
+        <v>29645</v>
       </c>
       <c r="I245" s="7">
-        <v>4869345300</v>
+        <v>4234173100</v>
       </c>
       <c r="J245" s="7">
-        <v>141018</v>
+        <v>121032</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="12.75">
@@ -10883,19 +10883,19 @@
         <v>14</v>
       </c>
       <c r="F246" s="7">
-        <v>15474</v>
+        <v>15142</v>
       </c>
       <c r="G246" s="7">
-        <v>753244000</v>
+        <v>626456000</v>
       </c>
       <c r="H246" s="7">
-        <v>48678</v>
+        <v>41372</v>
       </c>
       <c r="I246" s="7">
-        <v>2735332900</v>
+        <v>2528923600</v>
       </c>
       <c r="J246" s="7">
-        <v>176770</v>
+        <v>167014</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="12.75">
@@ -10915,19 +10915,19 @@
         <v>14</v>
       </c>
       <c r="F247" s="7">
-        <v>25205</v>
+        <v>25518</v>
       </c>
       <c r="G247" s="7">
-        <v>2120815000</v>
+        <v>1758121000</v>
       </c>
       <c r="H247" s="7">
-        <v>84143</v>
+        <v>68897</v>
       </c>
       <c r="I247" s="7">
-        <v>6543953300</v>
+        <v>5817458000</v>
       </c>
       <c r="J247" s="7">
-        <v>259629</v>
+        <v>227975</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="12.75">
@@ -10947,19 +10947,19 @@
         <v>14</v>
       </c>
       <c r="F248" s="7">
-        <v>13023</v>
+        <v>12502</v>
       </c>
       <c r="G248" s="7">
-        <v>723201000</v>
+        <v>619307000</v>
       </c>
       <c r="H248" s="7">
-        <v>55533</v>
+        <v>49537</v>
       </c>
       <c r="I248" s="7">
-        <v>2389985700</v>
+        <v>2137328300</v>
       </c>
       <c r="J248" s="7">
-        <v>183520</v>
+        <v>170959</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="12.75">
@@ -10979,19 +10979,19 @@
         <v>14</v>
       </c>
       <c r="F249" s="7">
-        <v>58528</v>
+        <v>62186</v>
       </c>
       <c r="G249" s="7">
-        <v>1767210000</v>
+        <v>1548089000</v>
       </c>
       <c r="H249" s="7">
-        <v>30194</v>
+        <v>24894</v>
       </c>
       <c r="I249" s="7">
-        <v>9389475300</v>
+        <v>7759126900</v>
       </c>
       <c r="J249" s="7">
-        <v>160427</v>
+        <v>124773</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="12.75">
@@ -11011,19 +11011,19 @@
         <v>14</v>
       </c>
       <c r="F250" s="7">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="G250" s="7">
-        <v>82471000</v>
+        <v>66778000</v>
       </c>
       <c r="H250" s="7">
-        <v>58824</v>
+        <v>47461</v>
       </c>
       <c r="I250" s="7">
-        <v>507363800</v>
+        <v>441224400</v>
       </c>
       <c r="J250" s="7">
-        <v>361886</v>
+        <v>313592</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="12.75">
@@ -11043,19 +11043,19 @@
         <v>14</v>
       </c>
       <c r="F251" s="7">
-        <v>5816</v>
+        <v>5717</v>
       </c>
       <c r="G251" s="7">
-        <v>307271000</v>
+        <v>263747000</v>
       </c>
       <c r="H251" s="7">
-        <v>52832</v>
+        <v>46134</v>
       </c>
       <c r="I251" s="7">
-        <v>1249707700</v>
+        <v>1099776900</v>
       </c>
       <c r="J251" s="7">
-        <v>214874</v>
+        <v>192370</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="12.75">
@@ -11075,19 +11075,19 @@
         <v>14</v>
       </c>
       <c r="F252" s="7">
-        <v>17609</v>
+        <v>17803</v>
       </c>
       <c r="G252" s="7">
-        <v>636847000</v>
+        <v>583397000</v>
       </c>
       <c r="H252" s="7">
-        <v>36166</v>
+        <v>32770</v>
       </c>
       <c r="I252" s="7">
-        <v>2667214100</v>
+        <v>2402334500</v>
       </c>
       <c r="J252" s="7">
-        <v>151469</v>
+        <v>134940</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="12.75">
@@ -11107,19 +11107,19 @@
         <v>14</v>
       </c>
       <c r="F253" s="7">
-        <v>6925</v>
+        <v>6992</v>
       </c>
       <c r="G253" s="7">
-        <v>482365000</v>
+        <v>370029000</v>
       </c>
       <c r="H253" s="7">
-        <v>69656</v>
+        <v>52922</v>
       </c>
       <c r="I253" s="7">
-        <v>2710915200</v>
+        <v>2475141900</v>
       </c>
       <c r="J253" s="7">
-        <v>391468</v>
+        <v>353996</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.75">
@@ -11139,19 +11139,19 @@
         <v>14</v>
       </c>
       <c r="F254" s="7">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G254" s="7">
-        <v>14934000</v>
+        <v>11401000</v>
       </c>
       <c r="H254" s="7">
-        <v>35473</v>
+        <v>26889</v>
       </c>
       <c r="I254" s="7">
-        <v>539813700</v>
+        <v>520263200</v>
       </c>
       <c r="J254" s="7">
-        <v>1282218</v>
+        <v>1227036</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="12.75">
@@ -11171,19 +11171,19 @@
         <v>14</v>
       </c>
       <c r="F255" s="7">
-        <v>6283</v>
+        <v>6161</v>
       </c>
       <c r="G255" s="7">
-        <v>375487000</v>
+        <v>312639000</v>
       </c>
       <c r="H255" s="7">
-        <v>59762</v>
+        <v>50745</v>
       </c>
       <c r="I255" s="7">
-        <v>1360711500</v>
+        <v>1201949600</v>
       </c>
       <c r="J255" s="7">
-        <v>216570</v>
+        <v>195090</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="12.75">
@@ -11203,19 +11203,19 @@
         <v>14</v>
       </c>
       <c r="F256" s="7">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="G256" s="7">
-        <v>37799000</v>
+        <v>32431000</v>
       </c>
       <c r="H256" s="7">
-        <v>29975</v>
+        <v>25945</v>
       </c>
       <c r="I256" s="7">
-        <v>173106900</v>
+        <v>148156600</v>
       </c>
       <c r="J256" s="7">
-        <v>137277</v>
+        <v>118525</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="12.75">
@@ -11235,19 +11235,19 @@
         <v>14</v>
       </c>
       <c r="F257" s="7">
-        <v>1631</v>
+        <v>1643</v>
       </c>
       <c r="G257" s="7">
-        <v>60372000</v>
+        <v>57818000</v>
       </c>
       <c r="H257" s="7">
-        <v>37015</v>
+        <v>35191</v>
       </c>
       <c r="I257" s="7">
-        <v>189182200</v>
+        <v>159385000</v>
       </c>
       <c r="J257" s="7">
-        <v>115992</v>
+        <v>97009</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="12.75">
@@ -11267,19 +11267,19 @@
         <v>14</v>
       </c>
       <c r="F258" s="7">
-        <v>9298</v>
+        <v>9049</v>
       </c>
       <c r="G258" s="7">
-        <v>434549000</v>
+        <v>359752000</v>
       </c>
       <c r="H258" s="7">
-        <v>46736</v>
+        <v>39756</v>
       </c>
       <c r="I258" s="7">
-        <v>1250864000</v>
+        <v>1039229400</v>
       </c>
       <c r="J258" s="7">
-        <v>134530</v>
+        <v>114845</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="12.75">
@@ -11299,19 +11299,19 @@
         <v>14</v>
       </c>
       <c r="F259" s="7">
-        <v>44722</v>
+        <v>44480</v>
       </c>
       <c r="G259" s="7">
-        <v>1770413000</v>
+        <v>1494565000</v>
       </c>
       <c r="H259" s="7">
-        <v>39587</v>
+        <v>33601</v>
       </c>
       <c r="I259" s="7">
-        <v>7783083000</v>
+        <v>6641110700</v>
       </c>
       <c r="J259" s="7">
-        <v>174033</v>
+        <v>149306</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="12.75">
@@ -11331,19 +11331,19 @@
         <v>14</v>
       </c>
       <c r="F260" s="7">
-        <v>9189</v>
+        <v>9236</v>
       </c>
       <c r="G260" s="7">
-        <v>384208000</v>
+        <v>328107000</v>
       </c>
       <c r="H260" s="7">
-        <v>41812</v>
+        <v>35525</v>
       </c>
       <c r="I260" s="7">
-        <v>2258891500</v>
+        <v>2004195100</v>
       </c>
       <c r="J260" s="7">
-        <v>245826</v>
+        <v>216998</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="12.75">
@@ -11363,19 +11363,19 @@
         <v>14</v>
       </c>
       <c r="F261" s="7">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="G261" s="7">
-        <v>28970000</v>
+        <v>19125000</v>
       </c>
       <c r="H261" s="7">
-        <v>29501</v>
+        <v>19338</v>
       </c>
       <c r="I261" s="7">
-        <v>262006000</v>
+        <v>239836800</v>
       </c>
       <c r="J261" s="7">
-        <v>266809</v>
+        <v>242504</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="12.75">
@@ -11395,19 +11395,19 @@
         <v>14</v>
       </c>
       <c r="F262" s="7">
-        <v>20611</v>
+        <v>20259</v>
       </c>
       <c r="G262" s="7">
-        <v>1189274000</v>
+        <v>933582000</v>
       </c>
       <c r="H262" s="7">
-        <v>57701</v>
+        <v>46082</v>
       </c>
       <c r="I262" s="7">
-        <v>5437055800</v>
+        <v>4979931300</v>
       </c>
       <c r="J262" s="7">
-        <v>263794</v>
+        <v>245813</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="12.75">
@@ -11427,19 +11427,19 @@
         <v>14</v>
       </c>
       <c r="F263" s="7">
-        <v>28547</v>
+        <v>28619</v>
       </c>
       <c r="G263" s="7">
-        <v>1272860000</v>
+        <v>1087457000</v>
       </c>
       <c r="H263" s="7">
-        <v>44588</v>
+        <v>37998</v>
       </c>
       <c r="I263" s="7">
-        <v>6097491800</v>
+        <v>5498717200</v>
       </c>
       <c r="J263" s="7">
-        <v>213595</v>
+        <v>192135</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="12.75">
@@ -11459,19 +11459,19 @@
         <v>14</v>
       </c>
       <c r="F264" s="7">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G264" s="7">
-        <v>21471000</v>
+        <v>19312000</v>
       </c>
       <c r="H264" s="7">
-        <v>33237</v>
+        <v>29941</v>
       </c>
       <c r="I264" s="7">
-        <v>82500500</v>
+        <v>75889600</v>
       </c>
       <c r="J264" s="7">
-        <v>127710</v>
+        <v>117658</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="12.75">
@@ -11491,19 +11491,19 @@
         <v>14</v>
       </c>
       <c r="F265" s="7">
-        <v>19190</v>
+        <v>19063</v>
       </c>
       <c r="G265" s="7">
-        <v>1823029000</v>
+        <v>1384226000</v>
       </c>
       <c r="H265" s="7">
-        <v>94999</v>
+        <v>72613</v>
       </c>
       <c r="I265" s="7">
-        <v>5952520200</v>
+        <v>5194149500</v>
       </c>
       <c r="J265" s="7">
-        <v>310189</v>
+        <v>272473</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="12.75">
@@ -11523,19 +11523,19 @@
         <v>14</v>
       </c>
       <c r="F266" s="7">
-        <v>15649</v>
+        <v>15531</v>
       </c>
       <c r="G266" s="7">
-        <v>759541000</v>
+        <v>626706000</v>
       </c>
       <c r="H266" s="7">
-        <v>48536</v>
+        <v>40352</v>
       </c>
       <c r="I266" s="7">
-        <v>2959677700</v>
+        <v>2729356900</v>
       </c>
       <c r="J266" s="7">
-        <v>189129</v>
+        <v>175736</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="12.75">
@@ -11555,19 +11555,19 @@
         <v>14</v>
       </c>
       <c r="F267" s="7">
-        <v>18408</v>
+        <v>18575</v>
       </c>
       <c r="G267" s="7">
-        <v>1652071000</v>
+        <v>1291970000</v>
       </c>
       <c r="H267" s="7">
-        <v>89747</v>
+        <v>69554</v>
       </c>
       <c r="I267" s="7">
-        <v>4292191400</v>
+        <v>3961784600</v>
       </c>
       <c r="J267" s="7">
-        <v>233170</v>
+        <v>213286</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="12.75">
@@ -11587,19 +11587,19 @@
         <v>14</v>
       </c>
       <c r="F268" s="7">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="G268" s="7">
-        <v>188328000</v>
+        <v>121639000</v>
       </c>
       <c r="H268" s="7">
-        <v>56572</v>
+        <v>36561</v>
       </c>
       <c r="I268" s="7">
-        <v>788173500</v>
+        <v>717578800</v>
       </c>
       <c r="J268" s="7">
-        <v>236760</v>
+        <v>215683</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="12.75">
@@ -11619,19 +11619,19 @@
         <v>14</v>
       </c>
       <c r="F269" s="7">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="G269" s="7">
-        <v>138211000</v>
+        <v>44258841</v>
       </c>
       <c r="H269" s="7">
-        <v>73283</v>
+        <v>23492</v>
       </c>
       <c r="I269" s="7">
-        <v>315346600</v>
+        <v>308015300</v>
       </c>
       <c r="J269" s="7">
-        <v>167204</v>
+        <v>163490</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="12.75">
@@ -11651,19 +11651,19 @@
         <v>14</v>
       </c>
       <c r="F270" s="7">
-        <v>4372</v>
+        <v>4401</v>
       </c>
       <c r="G270" s="7">
-        <v>1434070000</v>
+        <v>946102000</v>
       </c>
       <c r="H270" s="7">
-        <v>328012</v>
+        <v>214974</v>
       </c>
       <c r="I270" s="7">
-        <v>1468975200</v>
+        <v>1380482500</v>
       </c>
       <c r="J270" s="7">
-        <v>335996</v>
+        <v>313675</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="12.75">
@@ -11683,19 +11683,19 @@
         <v>14</v>
       </c>
       <c r="F271" s="7">
-        <v>6782</v>
+        <v>7431</v>
       </c>
       <c r="G271" s="7">
-        <v>265457000</v>
+        <v>226197000</v>
       </c>
       <c r="H271" s="7">
-        <v>39141</v>
+        <v>30440</v>
       </c>
       <c r="I271" s="7">
-        <v>847533600</v>
+        <v>778088400</v>
       </c>
       <c r="J271" s="7">
-        <v>124968</v>
+        <v>104708</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="12.75">
@@ -11715,19 +11715,19 @@
         <v>14</v>
       </c>
       <c r="F272" s="7">
-        <v>39805</v>
+        <v>38325</v>
       </c>
       <c r="G272" s="7">
-        <v>2891218000</v>
+        <v>2287457000</v>
       </c>
       <c r="H272" s="7">
-        <v>72635</v>
+        <v>59686</v>
       </c>
       <c r="I272" s="7">
-        <v>7215094200</v>
+        <v>6818364500</v>
       </c>
       <c r="J272" s="7">
-        <v>181261</v>
+        <v>177909</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="12.75">
@@ -11747,19 +11747,19 @@
         <v>14</v>
       </c>
       <c r="F273" s="7">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="G273" s="7">
-        <v>63654000</v>
+        <v>53151000</v>
       </c>
       <c r="H273" s="7">
-        <v>36879</v>
+        <v>30956</v>
       </c>
       <c r="I273" s="7">
-        <v>258085500</v>
+        <v>243958800</v>
       </c>
       <c r="J273" s="7">
-        <v>149528</v>
+        <v>142084</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="12.75">
@@ -11779,19 +11779,19 @@
         <v>14</v>
       </c>
       <c r="F274" s="7">
-        <v>18192</v>
+        <v>18303</v>
       </c>
       <c r="G274" s="7">
-        <v>719659000</v>
+        <v>613284000</v>
       </c>
       <c r="H274" s="7">
-        <v>39559</v>
+        <v>33507</v>
       </c>
       <c r="I274" s="7">
-        <v>2845873800</v>
+        <v>2395477400</v>
       </c>
       <c r="J274" s="7">
-        <v>156435</v>
+        <v>130879</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="12.75">
@@ -11811,19 +11811,19 @@
         <v>14</v>
       </c>
       <c r="F275" s="7">
-        <v>79762</v>
+        <v>81045</v>
       </c>
       <c r="G275" s="7">
-        <v>4758117000</v>
+        <v>4174809000</v>
       </c>
       <c r="H275" s="7">
-        <v>59654</v>
+        <v>51512</v>
       </c>
       <c r="I275" s="7">
-        <v>22812899800</v>
+        <v>19987384600</v>
       </c>
       <c r="J275" s="7">
-        <v>286012</v>
+        <v>246621</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="12.75">
@@ -11843,19 +11843,19 @@
         <v>14</v>
       </c>
       <c r="F276" s="7">
-        <v>18046</v>
+        <v>18150</v>
       </c>
       <c r="G276" s="7">
-        <v>699816000</v>
+        <v>594304000</v>
       </c>
       <c r="H276" s="7">
-        <v>38780</v>
+        <v>32744</v>
       </c>
       <c r="I276" s="7">
-        <v>1917250100</v>
+        <v>1745214700</v>
       </c>
       <c r="J276" s="7">
-        <v>106242</v>
+        <v>96155</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="12.75">
@@ -11875,19 +11875,19 @@
         <v>14</v>
       </c>
       <c r="F277" s="7">
-        <v>6207</v>
+        <v>6224</v>
       </c>
       <c r="G277" s="7">
-        <v>340974000</v>
+        <v>297008000</v>
       </c>
       <c r="H277" s="7">
-        <v>54934</v>
+        <v>47720</v>
       </c>
       <c r="I277" s="7">
-        <v>940959000</v>
+        <v>841345200</v>
       </c>
       <c r="J277" s="7">
-        <v>151596</v>
+        <v>135178</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="12.75">
@@ -11907,19 +11907,19 @@
         <v>14</v>
       </c>
       <c r="F278" s="7">
-        <v>10409</v>
+        <v>10450</v>
       </c>
       <c r="G278" s="7">
-        <v>1609518000</v>
+        <v>1288143000</v>
       </c>
       <c r="H278" s="7">
-        <v>154628</v>
+        <v>123267</v>
       </c>
       <c r="I278" s="7">
-        <v>3033118400</v>
+        <v>2780408500</v>
       </c>
       <c r="J278" s="7">
-        <v>291394</v>
+        <v>266068</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="12.75">
@@ -11939,19 +11939,19 @@
         <v>14</v>
       </c>
       <c r="F279" s="7">
-        <v>17619</v>
+        <v>17740</v>
       </c>
       <c r="G279" s="7">
-        <v>433215000</v>
+        <v>381782000</v>
       </c>
       <c r="H279" s="7">
-        <v>24588</v>
+        <v>21521</v>
       </c>
       <c r="I279" s="7">
-        <v>1422813300</v>
+        <v>1200715500</v>
       </c>
       <c r="J279" s="7">
-        <v>80754</v>
+        <v>67684</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="12.75">
@@ -11971,19 +11971,19 @@
         <v>14</v>
       </c>
       <c r="F280" s="7">
-        <v>9190</v>
+        <v>9232</v>
       </c>
       <c r="G280" s="7">
-        <v>432271000</v>
+        <v>389507000</v>
       </c>
       <c r="H280" s="7">
-        <v>47037</v>
+        <v>42191</v>
       </c>
       <c r="I280" s="7">
-        <v>1295630000</v>
+        <v>1204413300</v>
       </c>
       <c r="J280" s="7">
-        <v>140983</v>
+        <v>130461</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="12.75">
@@ -12003,19 +12003,19 @@
         <v>14</v>
       </c>
       <c r="F281" s="7">
-        <v>11911</v>
+        <v>11992</v>
       </c>
       <c r="G281" s="7">
-        <v>401399000</v>
+        <v>358964000</v>
       </c>
       <c r="H281" s="7">
-        <v>33700</v>
+        <v>29934</v>
       </c>
       <c r="I281" s="7">
-        <v>1407446100</v>
+        <v>1231722600</v>
       </c>
       <c r="J281" s="7">
-        <v>118164</v>
+        <v>102712</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="12.75">
@@ -12035,19 +12035,19 @@
         <v>14</v>
       </c>
       <c r="F282" s="7">
-        <v>154064</v>
+        <v>155929</v>
       </c>
       <c r="G282" s="7">
-        <v>2966689000</v>
+        <v>2625647000</v>
       </c>
       <c r="H282" s="7">
-        <v>19256</v>
+        <v>16839</v>
       </c>
       <c r="I282" s="7">
-        <v>11356806000</v>
+        <v>9395931000</v>
       </c>
       <c r="J282" s="7">
-        <v>73715</v>
+        <v>60258</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="12.75">
@@ -12067,19 +12067,19 @@
         <v>14</v>
       </c>
       <c r="F283" s="7">
-        <v>8139</v>
+        <v>7985</v>
       </c>
       <c r="G283" s="7">
-        <v>487890000</v>
+        <v>410246000</v>
       </c>
       <c r="H283" s="7">
-        <v>59945</v>
+        <v>51377</v>
       </c>
       <c r="I283" s="7">
-        <v>1439088200</v>
+        <v>1256274900</v>
       </c>
       <c r="J283" s="7">
-        <v>176814</v>
+        <v>157329</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="12.75">
@@ -12099,19 +12099,19 @@
         <v>14</v>
       </c>
       <c r="F284" s="7">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="G284" s="7">
-        <v>136665000</v>
+        <v>99219000</v>
       </c>
       <c r="H284" s="7">
-        <v>68401</v>
+        <v>49167</v>
       </c>
       <c r="I284" s="7">
-        <v>1037162900</v>
+        <v>951374700</v>
       </c>
       <c r="J284" s="7">
-        <v>519101</v>
+        <v>471444</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="12.75">
@@ -12131,19 +12131,19 @@
         <v>14</v>
       </c>
       <c r="F285" s="7">
-        <v>22705</v>
+        <v>23244</v>
       </c>
       <c r="G285" s="7">
-        <v>1361783000</v>
+        <v>1110699000</v>
       </c>
       <c r="H285" s="7">
-        <v>59977</v>
+        <v>47784</v>
       </c>
       <c r="I285" s="7">
-        <v>5178336700</v>
+        <v>4676207700</v>
       </c>
       <c r="J285" s="7">
-        <v>228070</v>
+        <v>201179</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="12.75">
@@ -12163,19 +12163,19 @@
         <v>14</v>
       </c>
       <c r="F286" s="7">
-        <v>28969</v>
+        <v>29281</v>
       </c>
       <c r="G286" s="7">
-        <v>1209344000</v>
+        <v>1044063000</v>
       </c>
       <c r="H286" s="7">
-        <v>41746</v>
+        <v>35657</v>
       </c>
       <c r="I286" s="7">
-        <v>5187577900</v>
+        <v>4681174300</v>
       </c>
       <c r="J286" s="7">
-        <v>179073</v>
+        <v>159871</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="12.75">
@@ -12195,19 +12195,19 @@
         <v>14</v>
       </c>
       <c r="F287" s="7">
-        <v>7042</v>
+        <v>7174</v>
       </c>
       <c r="G287" s="7">
-        <v>681975000</v>
+        <v>550317000</v>
       </c>
       <c r="H287" s="7">
-        <v>96844</v>
+        <v>76710</v>
       </c>
       <c r="I287" s="7">
-        <v>1594927000</v>
+        <v>1445144700</v>
       </c>
       <c r="J287" s="7">
-        <v>226488</v>
+        <v>201442</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="12.75">
@@ -12227,19 +12227,19 @@
         <v>14</v>
       </c>
       <c r="F288" s="7">
-        <v>9882</v>
+        <v>9867</v>
       </c>
       <c r="G288" s="7">
-        <v>566771000</v>
+        <v>477556000</v>
       </c>
       <c r="H288" s="7">
-        <v>57354</v>
+        <v>48399</v>
       </c>
       <c r="I288" s="7">
-        <v>1540777200</v>
+        <v>1458329400</v>
       </c>
       <c r="J288" s="7">
-        <v>155918</v>
+        <v>147799</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="12.75">
@@ -12259,19 +12259,19 @@
         <v>14</v>
       </c>
       <c r="F289" s="7">
-        <v>18965</v>
+        <v>18934</v>
       </c>
       <c r="G289" s="7">
-        <v>2949482000</v>
+        <v>2280904000</v>
       </c>
       <c r="H289" s="7">
-        <v>155522</v>
+        <v>120466</v>
       </c>
       <c r="I289" s="7">
-        <v>5513521800</v>
+        <v>5131906400</v>
       </c>
       <c r="J289" s="7">
-        <v>290721</v>
+        <v>271042</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="12.75">
@@ -12291,19 +12291,19 @@
         <v>14</v>
       </c>
       <c r="F290" s="7">
-        <v>3647</v>
+        <v>3663</v>
       </c>
       <c r="G290" s="7">
-        <v>218466000</v>
+        <v>109964000</v>
       </c>
       <c r="H290" s="7">
-        <v>59903</v>
+        <v>30020</v>
       </c>
       <c r="I290" s="7">
-        <v>458245200</v>
+        <v>388097600</v>
       </c>
       <c r="J290" s="7">
-        <v>125650</v>
+        <v>105951</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="12.75">
@@ -12323,19 +12323,19 @@
         <v>14</v>
       </c>
       <c r="F291" s="7">
-        <v>9379</v>
+        <v>9357</v>
       </c>
       <c r="G291" s="7">
-        <v>632811000</v>
+        <v>544119000</v>
       </c>
       <c r="H291" s="7">
-        <v>67471</v>
+        <v>58151</v>
       </c>
       <c r="I291" s="7">
-        <v>1838850200</v>
+        <v>1666618900</v>
       </c>
       <c r="J291" s="7">
-        <v>196060</v>
+        <v>178115</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="12.75">
@@ -12355,19 +12355,19 @@
         <v>14</v>
       </c>
       <c r="F292" s="7">
-        <v>15280</v>
+        <v>15111</v>
       </c>
       <c r="G292" s="7">
-        <v>1425100000</v>
+        <v>1090821000</v>
       </c>
       <c r="H292" s="7">
-        <v>93266</v>
+        <v>72187</v>
       </c>
       <c r="I292" s="7">
-        <v>4007032500</v>
+        <v>3428507500</v>
       </c>
       <c r="J292" s="7">
-        <v>262240</v>
+        <v>226888</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12.75">
@@ -12387,19 +12387,19 @@
         <v>14</v>
       </c>
       <c r="F293" s="7">
-        <v>17307</v>
+        <v>17144</v>
       </c>
       <c r="G293" s="7">
-        <v>701473000</v>
+        <v>591781000</v>
       </c>
       <c r="H293" s="7">
-        <v>40531</v>
+        <v>34518</v>
       </c>
       <c r="I293" s="7">
-        <v>2751746600</v>
+        <v>2431716500</v>
       </c>
       <c r="J293" s="7">
-        <v>158996</v>
+        <v>141841</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="12.75">
@@ -12419,19 +12419,19 @@
         <v>14</v>
       </c>
       <c r="F294" s="7">
-        <v>59922</v>
+        <v>59408</v>
       </c>
       <c r="G294" s="7">
-        <v>1823898000</v>
+        <v>1604932000</v>
       </c>
       <c r="H294" s="7">
-        <v>30438</v>
+        <v>27015</v>
       </c>
       <c r="I294" s="7">
-        <v>7410717500</v>
+        <v>6152158200</v>
       </c>
       <c r="J294" s="7">
-        <v>123673</v>
+        <v>103558</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="12.75">
@@ -12451,19 +12451,19 @@
         <v>14</v>
       </c>
       <c r="F295" s="7">
-        <v>8183</v>
+        <v>8149</v>
       </c>
       <c r="G295" s="7">
-        <v>270698000</v>
+        <v>234294000</v>
       </c>
       <c r="H295" s="7">
-        <v>33081</v>
+        <v>28751</v>
       </c>
       <c r="I295" s="7">
-        <v>893567900</v>
+        <v>731826100</v>
       </c>
       <c r="J295" s="7">
-        <v>109198</v>
+        <v>89806</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="12.75">
@@ -12483,19 +12483,19 @@
         <v>14</v>
       </c>
       <c r="F296" s="7">
-        <v>30833</v>
+        <v>31342</v>
       </c>
       <c r="G296" s="7">
-        <v>1596013000</v>
+        <v>1368087000</v>
       </c>
       <c r="H296" s="7">
-        <v>51763</v>
+        <v>43650</v>
       </c>
       <c r="I296" s="7">
-        <v>6249555900</v>
+        <v>5637921800</v>
       </c>
       <c r="J296" s="7">
-        <v>202690</v>
+        <v>179884</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="12.75">
@@ -12515,19 +12515,19 @@
         <v>14</v>
       </c>
       <c r="F297" s="7">
-        <v>4886</v>
+        <v>4815</v>
       </c>
       <c r="G297" s="7">
-        <v>395231000</v>
+        <v>104294400</v>
       </c>
       <c r="H297" s="7">
-        <v>80891</v>
+        <v>21660</v>
       </c>
       <c r="I297" s="7">
-        <v>3667871800</v>
+        <v>3224394300</v>
       </c>
       <c r="J297" s="7">
-        <v>750690</v>
+        <v>669656</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="12.75">
@@ -12547,19 +12547,19 @@
         <v>14</v>
       </c>
       <c r="F298" s="7">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G298" s="7">
-        <v>15044000</v>
+        <v>12552000</v>
       </c>
       <c r="H298" s="7">
-        <v>32214</v>
+        <v>26650</v>
       </c>
       <c r="I298" s="7">
-        <v>225103100</v>
+        <v>196506400</v>
       </c>
       <c r="J298" s="7">
-        <v>482019</v>
+        <v>417211</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="12.75">
@@ -12579,19 +12579,19 @@
         <v>14</v>
       </c>
       <c r="F299" s="7">
-        <v>6504</v>
+        <v>6569</v>
       </c>
       <c r="G299" s="7">
-        <v>632430000</v>
+        <v>501440000</v>
       </c>
       <c r="H299" s="7">
-        <v>97237</v>
+        <v>76334</v>
       </c>
       <c r="I299" s="7">
-        <v>1686723900</v>
+        <v>1512746600</v>
       </c>
       <c r="J299" s="7">
-        <v>259336</v>
+        <v>230286</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="12.75">
@@ -12611,19 +12611,19 @@
         <v>14</v>
       </c>
       <c r="F300" s="7">
-        <v>8948</v>
+        <v>9127</v>
       </c>
       <c r="G300" s="7">
-        <v>374488000</v>
+        <v>337685000</v>
       </c>
       <c r="H300" s="7">
-        <v>41852</v>
+        <v>36998</v>
       </c>
       <c r="I300" s="7">
-        <v>1176302500</v>
+        <v>1028137100</v>
       </c>
       <c r="J300" s="7">
-        <v>131460</v>
+        <v>112648</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="12.75">
@@ -12643,19 +12643,19 @@
         <v>14</v>
       </c>
       <c r="F301" s="7">
-        <v>2486</v>
+        <v>2454</v>
       </c>
       <c r="G301" s="7">
-        <v>149712000</v>
+        <v>113597000</v>
       </c>
       <c r="H301" s="7">
-        <v>60222</v>
+        <v>46291</v>
       </c>
       <c r="I301" s="7">
-        <v>2624539200</v>
+        <v>2485412200</v>
       </c>
       <c r="J301" s="7">
-        <v>1055728</v>
+        <v>1012800</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="12.75">
@@ -12675,19 +12675,19 @@
         <v>14</v>
       </c>
       <c r="F302" s="7">
-        <v>12368</v>
+        <v>12380</v>
       </c>
       <c r="G302" s="7">
-        <v>692658000</v>
+        <v>567254000</v>
       </c>
       <c r="H302" s="7">
-        <v>56004</v>
+        <v>45820</v>
       </c>
       <c r="I302" s="7">
-        <v>2177318100</v>
+        <v>1879305900</v>
       </c>
       <c r="J302" s="7">
-        <v>176044</v>
+        <v>151802</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="12.75">
@@ -12707,19 +12707,19 @@
         <v>14</v>
       </c>
       <c r="F303" s="7">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G303" s="7">
-        <v>17292000</v>
+        <v>9527000</v>
       </c>
       <c r="H303" s="7">
-        <v>41074</v>
+        <v>22311</v>
       </c>
       <c r="I303" s="7">
-        <v>228166500</v>
+        <v>214764900</v>
       </c>
       <c r="J303" s="7">
-        <v>541963</v>
+        <v>502962</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="12.75">
@@ -12739,19 +12739,19 @@
         <v>14</v>
       </c>
       <c r="F304" s="7">
-        <v>8128</v>
+        <v>8000</v>
       </c>
       <c r="G304" s="7">
-        <v>559842000</v>
+        <v>462965000</v>
       </c>
       <c r="H304" s="7">
-        <v>68878</v>
+        <v>57871</v>
       </c>
       <c r="I304" s="7">
-        <v>1431109500</v>
+        <v>1323346500</v>
       </c>
       <c r="J304" s="7">
-        <v>176072</v>
+        <v>165418</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="12.75">
@@ -12771,19 +12771,19 @@
         <v>14</v>
       </c>
       <c r="F305" s="7">
-        <v>14386</v>
+        <v>14162</v>
       </c>
       <c r="G305" s="7">
-        <v>654411000</v>
+        <v>565746000</v>
       </c>
       <c r="H305" s="7">
-        <v>45489</v>
+        <v>39948</v>
       </c>
       <c r="I305" s="7">
-        <v>2302233500</v>
+        <v>2020830200</v>
       </c>
       <c r="J305" s="7">
-        <v>160033</v>
+        <v>142694</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="12.75">
@@ -12803,19 +12803,19 @@
         <v>14</v>
       </c>
       <c r="F306" s="7">
-        <v>27069</v>
+        <v>27090</v>
       </c>
       <c r="G306" s="7">
-        <v>1677243000</v>
+        <v>1441662000</v>
       </c>
       <c r="H306" s="7">
-        <v>61962</v>
+        <v>53217</v>
       </c>
       <c r="I306" s="7">
-        <v>6497773200</v>
+        <v>5733498000</v>
       </c>
       <c r="J306" s="7">
-        <v>240045</v>
+        <v>211646</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="12.75">
@@ -12835,19 +12835,19 @@
         <v>14</v>
       </c>
       <c r="F307" s="7">
-        <v>1807</v>
+        <v>1832</v>
       </c>
       <c r="G307" s="7">
-        <v>52084000</v>
+        <v>45851000</v>
       </c>
       <c r="H307" s="7">
-        <v>28823</v>
+        <v>25028</v>
       </c>
       <c r="I307" s="7">
-        <v>206597900</v>
+        <v>184036100</v>
       </c>
       <c r="J307" s="7">
-        <v>114332</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="12.75">
@@ -12867,19 +12867,19 @@
         <v>14</v>
       </c>
       <c r="F308" s="7">
-        <v>26277</v>
+        <v>26383</v>
       </c>
       <c r="G308" s="7">
-        <v>1890178000</v>
+        <v>1549523000</v>
       </c>
       <c r="H308" s="7">
-        <v>71933</v>
+        <v>58732</v>
       </c>
       <c r="I308" s="7">
-        <v>5952614800</v>
+        <v>5276015500</v>
       </c>
       <c r="J308" s="7">
-        <v>226533</v>
+        <v>199978</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="12.75">
@@ -12899,19 +12899,19 @@
         <v>14</v>
       </c>
       <c r="F309" s="7">
-        <v>64065</v>
+        <v>65218</v>
       </c>
       <c r="G309" s="7">
-        <v>3212439000</v>
+        <v>2676635000</v>
       </c>
       <c r="H309" s="7">
-        <v>50143</v>
+        <v>41041</v>
       </c>
       <c r="I309" s="7">
-        <v>17215737300</v>
+        <v>15280634600</v>
       </c>
       <c r="J309" s="7">
-        <v>268723</v>
+        <v>234301</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="12.75">
@@ -12931,19 +12931,19 @@
         <v>14</v>
       </c>
       <c r="F310" s="7">
-        <v>10385</v>
+        <v>10066</v>
       </c>
       <c r="G310" s="7">
-        <v>275079000</v>
+        <v>242254000</v>
       </c>
       <c r="H310" s="7">
-        <v>26488</v>
+        <v>24067</v>
       </c>
       <c r="I310" s="7">
-        <v>922889900</v>
+        <v>812035400</v>
       </c>
       <c r="J310" s="7">
-        <v>88868</v>
+        <v>80671</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="12.75">
@@ -12963,19 +12963,19 @@
         <v>14</v>
       </c>
       <c r="F311" s="7">
-        <v>23151</v>
+        <v>23303</v>
       </c>
       <c r="G311" s="7">
-        <v>735781000</v>
+        <v>633863000</v>
       </c>
       <c r="H311" s="7">
-        <v>31782</v>
+        <v>27201</v>
       </c>
       <c r="I311" s="7">
-        <v>4699228300</v>
+        <v>4129275400</v>
       </c>
       <c r="J311" s="7">
-        <v>202982</v>
+        <v>177199</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="12.75">
@@ -12995,19 +12995,19 @@
         <v>14</v>
       </c>
       <c r="F312" s="7">
-        <v>4968</v>
+        <v>4975</v>
       </c>
       <c r="G312" s="7">
-        <v>117140000</v>
+        <v>105574000</v>
       </c>
       <c r="H312" s="7">
-        <v>23579</v>
+        <v>21221</v>
       </c>
       <c r="I312" s="7">
-        <v>487514800</v>
+        <v>430289400</v>
       </c>
       <c r="J312" s="7">
-        <v>98131</v>
+        <v>86490</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="12.75">
@@ -13030,16 +13030,16 @@
         <v>780</v>
       </c>
       <c r="G313" s="7">
-        <v>21868000</v>
+        <v>18918000</v>
       </c>
       <c r="H313" s="7">
-        <v>28036</v>
+        <v>24254</v>
       </c>
       <c r="I313" s="7">
-        <v>91765300</v>
+        <v>82405000</v>
       </c>
       <c r="J313" s="7">
-        <v>117648</v>
+        <v>105647</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="12.75">
@@ -13059,19 +13059,19 @@
         <v>14</v>
       </c>
       <c r="F314" s="7">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G314" s="7">
-        <v>17292000</v>
+        <v>16300000</v>
       </c>
       <c r="H314" s="7">
-        <v>34793</v>
+        <v>32996</v>
       </c>
       <c r="I314" s="7">
-        <v>96983700</v>
+        <v>85907800</v>
       </c>
       <c r="J314" s="7">
-        <v>195138</v>
+        <v>173902</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="12.75">
@@ -13091,19 +13091,19 @@
         <v>14</v>
       </c>
       <c r="F315" s="7">
-        <v>35022</v>
+        <v>35329</v>
       </c>
       <c r="G315" s="7">
-        <v>2188001000</v>
+        <v>1899634000</v>
       </c>
       <c r="H315" s="7">
-        <v>62475</v>
+        <v>53770</v>
       </c>
       <c r="I315" s="7">
-        <v>11132886300</v>
+        <v>9830970500</v>
       </c>
       <c r="J315" s="7">
-        <v>317883</v>
+        <v>278269</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="12.75">
@@ -13123,19 +13123,19 @@
         <v>14</v>
       </c>
       <c r="F316" s="7">
-        <v>13664</v>
+        <v>13943</v>
       </c>
       <c r="G316" s="7">
-        <v>3111517000</v>
+        <v>1995290000</v>
       </c>
       <c r="H316" s="7">
-        <v>227716</v>
+        <v>143103</v>
       </c>
       <c r="I316" s="7">
-        <v>4401061600</v>
+        <v>4238747600</v>
       </c>
       <c r="J316" s="7">
-        <v>322092</v>
+        <v>304005</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="12.75">
@@ -13155,19 +13155,19 @@
         <v>14</v>
       </c>
       <c r="F317" s="7">
-        <v>17601</v>
+        <v>17776</v>
       </c>
       <c r="G317" s="7">
-        <v>626322000</v>
+        <v>513696000</v>
       </c>
       <c r="H317" s="7">
-        <v>35584</v>
+        <v>28898</v>
       </c>
       <c r="I317" s="7">
-        <v>2051784300</v>
+        <v>1844205900</v>
       </c>
       <c r="J317" s="7">
-        <v>116572</v>
+        <v>103747</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="12.75">
@@ -13187,19 +13187,19 @@
         <v>14</v>
       </c>
       <c r="F318" s="7">
-        <v>30524</v>
+        <v>29550</v>
       </c>
       <c r="G318" s="7">
-        <v>10216671000</v>
+        <v>6248636000</v>
       </c>
       <c r="H318" s="7">
-        <v>334709</v>
+        <v>211460</v>
       </c>
       <c r="I318" s="7">
-        <v>14471634900</v>
+        <v>13524019800</v>
       </c>
       <c r="J318" s="7">
-        <v>474107</v>
+        <v>457666</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="12.75">
@@ -13219,19 +13219,19 @@
         <v>14</v>
       </c>
       <c r="F319" s="7">
-        <v>3644</v>
+        <v>3566</v>
       </c>
       <c r="G319" s="7">
-        <v>200215000</v>
+        <v>153805000</v>
       </c>
       <c r="H319" s="7">
-        <v>54944</v>
+        <v>43131</v>
       </c>
       <c r="I319" s="7">
-        <v>2962150700</v>
+        <v>2661294900</v>
       </c>
       <c r="J319" s="7">
-        <v>812884</v>
+        <v>746297</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="12.75">
@@ -13251,19 +13251,19 @@
         <v>14</v>
       </c>
       <c r="F320" s="7">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="G320" s="7">
-        <v>21091000</v>
+        <v>19845000</v>
       </c>
       <c r="H320" s="7">
-        <v>22900</v>
+        <v>21477</v>
       </c>
       <c r="I320" s="7">
-        <v>119774300</v>
+        <v>102149000</v>
       </c>
       <c r="J320" s="7">
-        <v>130048</v>
+        <v>110551</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="12.75">
@@ -13283,19 +13283,19 @@
         <v>14</v>
       </c>
       <c r="F321" s="7">
-        <v>4926</v>
+        <v>4979</v>
       </c>
       <c r="G321" s="7">
-        <v>535268000</v>
+        <v>392069000</v>
       </c>
       <c r="H321" s="7">
-        <v>108662</v>
+        <v>78745</v>
       </c>
       <c r="I321" s="7">
-        <v>1010590200</v>
+        <v>946329400</v>
       </c>
       <c r="J321" s="7">
-        <v>205154</v>
+        <v>190064</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="12.75">
@@ -13315,19 +13315,19 @@
         <v>14</v>
       </c>
       <c r="F322" s="7">
-        <v>7757</v>
+        <v>7877</v>
       </c>
       <c r="G322" s="7">
-        <v>352562000</v>
+        <v>294419000</v>
       </c>
       <c r="H322" s="7">
-        <v>45451</v>
+        <v>37377</v>
       </c>
       <c r="I322" s="7">
-        <v>1203529000</v>
+        <v>1080272600</v>
       </c>
       <c r="J322" s="7">
-        <v>155154</v>
+        <v>137143</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="12.75">
@@ -13347,19 +13347,19 @@
         <v>14</v>
       </c>
       <c r="F323" s="7">
-        <v>7625</v>
+        <v>7707</v>
       </c>
       <c r="G323" s="7">
-        <v>341590000</v>
+        <v>290720000</v>
       </c>
       <c r="H323" s="7">
-        <v>44799</v>
+        <v>37722</v>
       </c>
       <c r="I323" s="7">
-        <v>1451294400</v>
+        <v>1379056200</v>
       </c>
       <c r="J323" s="7">
-        <v>190334</v>
+        <v>178936</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="12.75">
@@ -13379,19 +13379,19 @@
         <v>14</v>
       </c>
       <c r="F324" s="7">
-        <v>3817</v>
+        <v>3833</v>
       </c>
       <c r="G324" s="7">
-        <v>171143000</v>
+        <v>140378000</v>
       </c>
       <c r="H324" s="7">
-        <v>44837</v>
+        <v>36624</v>
       </c>
       <c r="I324" s="7">
-        <v>513429200</v>
+        <v>440792400</v>
       </c>
       <c r="J324" s="7">
-        <v>134511</v>
+        <v>114999</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="12.75">
@@ -13411,19 +13411,19 @@
         <v>14</v>
       </c>
       <c r="F325" s="7">
-        <v>4562</v>
+        <v>4500</v>
       </c>
       <c r="G325" s="7">
-        <v>429457000</v>
+        <v>353784000</v>
       </c>
       <c r="H325" s="7">
-        <v>94138</v>
+        <v>78619</v>
       </c>
       <c r="I325" s="7">
-        <v>1189426700</v>
+        <v>1027055700</v>
       </c>
       <c r="J325" s="7">
-        <v>260725</v>
+        <v>228235</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="12.75">
@@ -13443,19 +13443,19 @@
         <v>14</v>
       </c>
       <c r="F326" s="7">
-        <v>28501</v>
+        <v>28835</v>
       </c>
       <c r="G326" s="7">
-        <v>1037417000</v>
+        <v>851551000</v>
       </c>
       <c r="H326" s="7">
-        <v>36399</v>
+        <v>29532</v>
       </c>
       <c r="I326" s="7">
-        <v>3302461300</v>
+        <v>2966876100</v>
       </c>
       <c r="J326" s="7">
-        <v>115872</v>
+        <v>102891</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="12.75">
@@ -13475,19 +13475,19 @@
         <v>14</v>
       </c>
       <c r="F327" s="7">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="G327" s="7">
-        <v>121284000</v>
+        <v>58045000</v>
       </c>
       <c r="H327" s="7">
-        <v>91260</v>
+        <v>43220</v>
       </c>
       <c r="I327" s="7">
-        <v>453409500</v>
+        <v>410234100</v>
       </c>
       <c r="J327" s="7">
-        <v>341166</v>
+        <v>305461</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="12.75">
@@ -13507,19 +13507,19 @@
         <v>14</v>
       </c>
       <c r="F328" s="7">
-        <v>3594</v>
+        <v>3555</v>
       </c>
       <c r="G328" s="7">
-        <v>158182000</v>
+        <v>240682000</v>
       </c>
       <c r="H328" s="7">
-        <v>44013</v>
+        <v>67702</v>
       </c>
       <c r="I328" s="7">
-        <v>3290703900</v>
+        <v>3002267300</v>
       </c>
       <c r="J328" s="7">
-        <v>915610</v>
+        <v>844520</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="12.75">
@@ -13539,19 +13539,19 @@
         <v>14</v>
       </c>
       <c r="F329" s="7">
-        <v>21506</v>
+        <v>21567</v>
       </c>
       <c r="G329" s="7">
-        <v>1735793000</v>
+        <v>1269510000</v>
       </c>
       <c r="H329" s="7">
-        <v>80712</v>
+        <v>58864</v>
       </c>
       <c r="I329" s="7">
-        <v>5021857900</v>
+        <v>4556141700</v>
       </c>
       <c r="J329" s="7">
-        <v>233510</v>
+        <v>211255</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="12.75">
@@ -13571,19 +13571,19 @@
         <v>14</v>
       </c>
       <c r="F330" s="7">
-        <v>40535</v>
+        <v>40834</v>
       </c>
       <c r="G330" s="7">
-        <v>1392811000</v>
+        <v>1225609000</v>
       </c>
       <c r="H330" s="7">
-        <v>34361</v>
+        <v>30014</v>
       </c>
       <c r="I330" s="7">
-        <v>3978694400</v>
+        <v>3606467600</v>
       </c>
       <c r="J330" s="7">
-        <v>98155</v>
+        <v>88320</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="12.75">
@@ -13603,19 +13603,19 @@
         <v>14</v>
       </c>
       <c r="F331" s="7">
-        <v>24353</v>
+        <v>24643</v>
       </c>
       <c r="G331" s="7">
-        <v>2014741000</v>
+        <v>1630178000</v>
       </c>
       <c r="H331" s="7">
-        <v>82731</v>
+        <v>66152</v>
       </c>
       <c r="I331" s="7">
-        <v>5707136100</v>
+        <v>5161061500</v>
       </c>
       <c r="J331" s="7">
-        <v>234350</v>
+        <v>209433</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="12.75">
@@ -13635,19 +13635,19 @@
         <v>14</v>
       </c>
       <c r="F332" s="7">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="G332" s="7">
-        <v>80199000</v>
+        <v>68642000</v>
       </c>
       <c r="H332" s="7">
-        <v>49506</v>
+        <v>42319</v>
       </c>
       <c r="I332" s="7">
-        <v>267682700</v>
+        <v>250696200</v>
       </c>
       <c r="J332" s="7">
-        <v>165236</v>
+        <v>154560</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="12.75">
@@ -13667,19 +13667,19 @@
         <v>14</v>
       </c>
       <c r="F333" s="7">
-        <v>8330</v>
+        <v>8213</v>
       </c>
       <c r="G333" s="7">
-        <v>404588000</v>
+        <v>329762000</v>
       </c>
       <c r="H333" s="7">
-        <v>48570</v>
+        <v>40151</v>
       </c>
       <c r="I333" s="7">
-        <v>1330013700</v>
+        <v>1117484000</v>
       </c>
       <c r="J333" s="7">
-        <v>159666</v>
+        <v>136063</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="12.75">
@@ -13699,19 +13699,19 @@
         <v>14</v>
       </c>
       <c r="F334" s="7">
-        <v>11661</v>
+        <v>11851</v>
       </c>
       <c r="G334" s="7">
-        <v>6431334000</v>
+        <v>3947628000</v>
       </c>
       <c r="H334" s="7">
-        <v>551525</v>
+        <v>333105</v>
       </c>
       <c r="I334" s="7">
-        <v>7192996000</v>
+        <v>6765132800</v>
       </c>
       <c r="J334" s="7">
-        <v>616842</v>
+        <v>570849</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="12.75">
@@ -13731,19 +13731,19 @@
         <v>14</v>
       </c>
       <c r="F335" s="7">
-        <v>16413</v>
+        <v>16339</v>
       </c>
       <c r="G335" s="7">
-        <v>931291000</v>
+        <v>787052000</v>
       </c>
       <c r="H335" s="7">
-        <v>56741</v>
+        <v>48170</v>
       </c>
       <c r="I335" s="7">
-        <v>4325909100</v>
+        <v>3742770600</v>
       </c>
       <c r="J335" s="7">
-        <v>263566</v>
+        <v>229070</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="12.75">
@@ -13763,19 +13763,19 @@
         <v>14</v>
       </c>
       <c r="F336" s="7">
-        <v>16231</v>
+        <v>16266</v>
       </c>
       <c r="G336" s="7">
-        <v>2527880000</v>
+        <v>2001729000</v>
       </c>
       <c r="H336" s="7">
-        <v>155744</v>
+        <v>123062</v>
       </c>
       <c r="I336" s="7">
-        <v>5479184600</v>
+        <v>5214138300</v>
       </c>
       <c r="J336" s="7">
-        <v>337575</v>
+        <v>320554</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="12.75">
@@ -13795,19 +13795,19 @@
         <v>14</v>
       </c>
       <c r="F337" s="7">
-        <v>57410</v>
+        <v>57437</v>
       </c>
       <c r="G337" s="7">
-        <v>2572553000</v>
+        <v>2206701000</v>
       </c>
       <c r="H337" s="7">
-        <v>44810</v>
+        <v>38420</v>
       </c>
       <c r="I337" s="7">
-        <v>10601685400</v>
+        <v>9358057000</v>
       </c>
       <c r="J337" s="7">
-        <v>184666</v>
+        <v>162927</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="12.75">
@@ -13827,19 +13827,19 @@
         <v>14</v>
       </c>
       <c r="F338" s="7">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="G338" s="7">
-        <v>42081000</v>
+        <v>36489000</v>
       </c>
       <c r="H338" s="7">
-        <v>25928</v>
+        <v>22706</v>
       </c>
       <c r="I338" s="7">
-        <v>333516600</v>
+        <v>288556600</v>
       </c>
       <c r="J338" s="7">
-        <v>205494</v>
+        <v>179562</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="12.75">
@@ -13859,19 +13859,19 @@
         <v>14</v>
       </c>
       <c r="F339" s="7">
-        <v>15259</v>
+        <v>15121</v>
       </c>
       <c r="G339" s="7">
-        <v>581553000</v>
+        <v>526094000</v>
       </c>
       <c r="H339" s="7">
-        <v>38112</v>
+        <v>34792</v>
       </c>
       <c r="I339" s="7">
-        <v>2145260700</v>
+        <v>1882778200</v>
       </c>
       <c r="J339" s="7">
-        <v>140590</v>
+        <v>124514</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="12.75">
@@ -13891,19 +13891,19 @@
         <v>14</v>
       </c>
       <c r="F340" s="7">
-        <v>14526</v>
+        <v>14613</v>
       </c>
       <c r="G340" s="7">
-        <v>789716000</v>
+        <v>729598000</v>
       </c>
       <c r="H340" s="7">
-        <v>54366</v>
+        <v>49928</v>
       </c>
       <c r="I340" s="7">
-        <v>2108258500</v>
+        <v>1874892200</v>
       </c>
       <c r="J340" s="7">
-        <v>145137</v>
+        <v>128303</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="12.75">
@@ -13923,19 +13923,19 @@
         <v>14</v>
       </c>
       <c r="F341" s="7">
-        <v>2469</v>
+        <v>2504</v>
       </c>
       <c r="G341" s="7">
-        <v>170594000</v>
+        <v>75099564</v>
       </c>
       <c r="H341" s="7">
-        <v>69094</v>
+        <v>29992</v>
       </c>
       <c r="I341" s="7">
-        <v>371024900</v>
+        <v>330724800</v>
       </c>
       <c r="J341" s="7">
-        <v>150273</v>
+        <v>132079</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="12.75">
@@ -13955,19 +13955,19 @@
         <v>14</v>
       </c>
       <c r="F342" s="7">
-        <v>7663</v>
+        <v>7513</v>
       </c>
       <c r="G342" s="7">
-        <v>362106000</v>
+        <v>269139000</v>
       </c>
       <c r="H342" s="7">
-        <v>47254</v>
+        <v>35823</v>
       </c>
       <c r="I342" s="7">
-        <v>1144212500</v>
+        <v>1054809700</v>
       </c>
       <c r="J342" s="7">
-        <v>149317</v>
+        <v>140398</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="12.75">
@@ -13987,19 +13987,19 @@
         <v>14</v>
       </c>
       <c r="F343" s="7">
-        <v>22904</v>
+        <v>23349</v>
       </c>
       <c r="G343" s="7">
-        <v>1332706000</v>
+        <v>1167254000</v>
       </c>
       <c r="H343" s="7">
-        <v>58187</v>
+        <v>49992</v>
       </c>
       <c r="I343" s="7">
-        <v>5921026600</v>
+        <v>5340168500</v>
       </c>
       <c r="J343" s="7">
-        <v>258515</v>
+        <v>228711</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="12.75">
@@ -14019,19 +14019,19 @@
         <v>14</v>
       </c>
       <c r="F344" s="7">
-        <v>10385</v>
+        <v>10364</v>
       </c>
       <c r="G344" s="7">
-        <v>283733000</v>
+        <v>275063000</v>
       </c>
       <c r="H344" s="7">
-        <v>27321</v>
+        <v>26540</v>
       </c>
       <c r="I344" s="7">
-        <v>983994000</v>
+        <v>825187100</v>
       </c>
       <c r="J344" s="7">
-        <v>94751</v>
+        <v>79621</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="12.75">
@@ -14051,19 +14051,19 @@
         <v>14</v>
       </c>
       <c r="F345" s="7">
-        <v>22640</v>
+        <v>22970</v>
       </c>
       <c r="G345" s="7">
-        <v>3980223000</v>
+        <v>2799298000</v>
       </c>
       <c r="H345" s="7">
-        <v>175805</v>
+        <v>121868</v>
       </c>
       <c r="I345" s="7">
-        <v>9544700800</v>
+        <v>8680662000</v>
       </c>
       <c r="J345" s="7">
-        <v>421586</v>
+        <v>377913</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="12.75">
@@ -14083,19 +14083,19 @@
         <v>14</v>
       </c>
       <c r="F346" s="7">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="G346" s="7">
-        <v>29781000</v>
+        <v>24650000</v>
       </c>
       <c r="H346" s="7">
-        <v>36407</v>
+        <v>29663</v>
       </c>
       <c r="I346" s="7">
-        <v>139980600</v>
+        <v>123292600</v>
       </c>
       <c r="J346" s="7">
-        <v>171125</v>
+        <v>148367</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="12.75">
@@ -14115,19 +14115,19 @@
         <v>14</v>
       </c>
       <c r="F347" s="7">
-        <v>18510</v>
+        <v>19316</v>
       </c>
       <c r="G347" s="7">
-        <v>837919000</v>
+        <v>713603000</v>
       </c>
       <c r="H347" s="7">
-        <v>45268</v>
+        <v>36944</v>
       </c>
       <c r="I347" s="7">
-        <v>3178797900</v>
+        <v>2870648300</v>
       </c>
       <c r="J347" s="7">
-        <v>171734</v>
+        <v>148615</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="12.75">
@@ -14147,19 +14147,19 @@
         <v>14</v>
       </c>
       <c r="F348" s="7">
-        <v>41248</v>
+        <v>40876</v>
       </c>
       <c r="G348" s="7">
-        <v>2222985000</v>
+        <v>1829233000</v>
       </c>
       <c r="H348" s="7">
-        <v>53893</v>
+        <v>44751</v>
       </c>
       <c r="I348" s="7">
-        <v>10155637600</v>
+        <v>9226467200</v>
       </c>
       <c r="J348" s="7">
-        <v>246209</v>
+        <v>225718</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="12.75">
@@ -14179,19 +14179,19 @@
         <v>14</v>
       </c>
       <c r="F349" s="7">
-        <v>205319</v>
+        <v>206518</v>
       </c>
       <c r="G349" s="7">
-        <v>5225475000</v>
+        <v>4638107000</v>
       </c>
       <c r="H349" s="7">
-        <v>25451</v>
+        <v>22459</v>
       </c>
       <c r="I349" s="7">
-        <v>18737985800</v>
+        <v>15426121200</v>
       </c>
       <c r="J349" s="7">
-        <v>91263</v>
+        <v>74696</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="12.75">
@@ -14211,19 +14211,19 @@
         <v>14</v>
       </c>
       <c r="F350" s="7">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="G350" s="7">
-        <v>39385000</v>
+        <v>34443000</v>
       </c>
       <c r="H350" s="7">
-        <v>33292</v>
+        <v>28871</v>
       </c>
       <c r="I350" s="7">
-        <v>198652000</v>
+        <v>182949300</v>
       </c>
       <c r="J350" s="7">
-        <v>167922</v>
+        <v>153352</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="12.75">
@@ -14243,19 +14243,19 @@
         <v>14</v>
       </c>
       <c r="F351" s="7">
-        <v>12457</v>
+        <v>12178</v>
       </c>
       <c r="G351" s="7">
-        <v>922083000</v>
+        <v>738007000</v>
       </c>
       <c r="H351" s="7">
-        <v>74021</v>
+        <v>60602</v>
       </c>
       <c r="I351" s="7">
-        <v>2814471000</v>
+        <v>2481220700</v>
       </c>
       <c r="J351" s="7">
-        <v>225935</v>
+        <v>203746</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="12.75">
@@ -14275,19 +14275,19 @@
         <v>14</v>
       </c>
       <c r="F352" s="7">
-        <v>25244</v>
+        <v>25023</v>
       </c>
       <c r="G352" s="7">
-        <v>1131027000</v>
+        <v>876692000</v>
       </c>
       <c r="H352" s="7">
-        <v>44804</v>
+        <v>35035</v>
       </c>
       <c r="I352" s="7">
-        <v>7825616900</v>
+        <v>6880187700</v>
       </c>
       <c r="J352" s="7">
-        <v>309999</v>
+        <v>274955</v>
       </c>
     </row>
   </sheetData>
